--- a/ワードウルフ単語_TF2.xlsx
+++ b/ワードウルフ単語_TF2.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="8385"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19420" windowHeight="8390"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="4" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="278">
   <si>
     <t>分類</t>
   </si>
@@ -812,19 +812,97 @@
   </si>
   <si>
     <t>このメンバーならだれが一番似ていますか？</t>
+  </si>
+  <si>
+    <t>これに遭遇してしまったときの顔で表現してください</t>
+    <rPh sb="16" eb="18">
+      <t>ヒョウゲン</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>これはどのくらいクリティカルで嫌ですか？</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>解決できるならいくらまでお金を払ってもいいですか？</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>どこの国でいちばん起きやすい事象ですか？</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>白タクに乗ってしまった</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>トイレの便座がない</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>飛行機の乗り継ぎ間に合わない</t>
+    <rPh sb="0" eb="3">
+      <t>ヒコウキ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>タビ中のある場面</t>
+    <rPh sb="2" eb="3">
+      <t>チュウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>バメン</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>お財布をなくしてしまった</t>
+    <rPh sb="1" eb="3">
+      <t>サイフ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>誰か一人に相談できるとしたら、どんな人を選びますか？</t>
+    <rPh sb="0" eb="1">
+      <t>ダレ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ヒトリ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ソウダン</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ヒト</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>エラ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>飲水にあたってしまった</t>
+    <rPh sb="0" eb="2">
+      <t>ノミミズ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>空港でロストバゲージ</t>
+    <rPh sb="0" eb="2">
+      <t>クウコウ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="26">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -835,6 +913,7 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Meiryo UI"/>
+      <family val="3"/>
       <charset val="128"/>
     </font>
     <font>
@@ -842,179 +921,44 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Meiryo UI"/>
+      <family val="3"/>
       <charset val="128"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Meiryo UI"/>
-      <charset val="134"/>
+      <family val="3"/>
+      <charset val="128"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF333333"/>
       <name val="Meiryo UI"/>
-      <charset val="134"/>
+      <family val="3"/>
+      <charset val="128"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Meiryo UI"/>
+      <family val="3"/>
       <charset val="128"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <sz val="6"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <sz val="10"/>
+      <name val="Meiryo UI"/>
+      <family val="3"/>
+      <charset val="128"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1033,194 +977,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="13">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -1280,253 +1038,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -1551,58 +1067,14 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
-    <cellStyle name="桁区切り[0]" xfId="1" builtinId="6"/>
-    <cellStyle name="入力" xfId="2" builtinId="20"/>
-    <cellStyle name="桁区切り" xfId="3" builtinId="3"/>
-    <cellStyle name="通貨[0]" xfId="4" builtinId="7"/>
-    <cellStyle name="40% - アクセント 5" xfId="5" builtinId="47"/>
-    <cellStyle name="通貨" xfId="6" builtinId="4"/>
-    <cellStyle name="20% - アクセント 4" xfId="7" builtinId="42"/>
-    <cellStyle name="メモ" xfId="8" builtinId="10"/>
-    <cellStyle name="パーセント" xfId="9" builtinId="5"/>
-    <cellStyle name="ハイパーリンク" xfId="10" builtinId="8"/>
-    <cellStyle name="アクセント 2" xfId="11" builtinId="33"/>
-    <cellStyle name="訪問済ハイパーリンク" xfId="12" builtinId="9"/>
-    <cellStyle name="良い" xfId="13" builtinId="26"/>
-    <cellStyle name="警告文" xfId="14" builtinId="11"/>
-    <cellStyle name="リンクセル" xfId="15" builtinId="24"/>
-    <cellStyle name="タイトル" xfId="16" builtinId="15"/>
-    <cellStyle name="説明文" xfId="17" builtinId="53"/>
-    <cellStyle name="アクセント 6" xfId="18" builtinId="49"/>
-    <cellStyle name="出力" xfId="19" builtinId="21"/>
-    <cellStyle name="見出し 1" xfId="20" builtinId="16"/>
-    <cellStyle name="見出し 2" xfId="21" builtinId="17"/>
-    <cellStyle name="計算" xfId="22" builtinId="22"/>
-    <cellStyle name="見出し 3" xfId="23" builtinId="18"/>
-    <cellStyle name="見出し 4" xfId="24" builtinId="19"/>
-    <cellStyle name="60% - アクセント 5" xfId="25" builtinId="48"/>
-    <cellStyle name="チェックセル" xfId="26" builtinId="23"/>
-    <cellStyle name="40% - アクセント 1" xfId="27" builtinId="31"/>
-    <cellStyle name="集計" xfId="28" builtinId="25"/>
-    <cellStyle name="悪い" xfId="29" builtinId="27"/>
-    <cellStyle name="どちらでもない" xfId="30" builtinId="28"/>
-    <cellStyle name="アクセント 1" xfId="31" builtinId="29"/>
-    <cellStyle name="20% - アクセント 1" xfId="32" builtinId="30"/>
-    <cellStyle name="20% - アクセント 5" xfId="33" builtinId="46"/>
-    <cellStyle name="60% - アクセント 1" xfId="34" builtinId="32"/>
-    <cellStyle name="20% - アクセント 2" xfId="35" builtinId="34"/>
-    <cellStyle name="40% - アクセント 2" xfId="36" builtinId="35"/>
-    <cellStyle name="20% - アクセント 6" xfId="37" builtinId="50"/>
-    <cellStyle name="60% - アクセント 2" xfId="38" builtinId="36"/>
-    <cellStyle name="アクセント 3" xfId="39" builtinId="37"/>
-    <cellStyle name="20% - アクセント 3" xfId="40" builtinId="38"/>
-    <cellStyle name="40% - アクセント 3" xfId="41" builtinId="39"/>
-    <cellStyle name="60% - アクセント 3" xfId="42" builtinId="40"/>
-    <cellStyle name="アクセント 4" xfId="43" builtinId="41"/>
-    <cellStyle name="40% - アクセント 4" xfId="44" builtinId="43"/>
-    <cellStyle name="60% - アクセント 4" xfId="45" builtinId="44"/>
-    <cellStyle name="アクセント 5" xfId="46" builtinId="45"/>
-    <cellStyle name="40% - アクセント 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - アクセント 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1804,38 +1276,39 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:R552"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R21" sqref="R21"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4571428571429" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.4571428571429" style="1"/>
-    <col min="2" max="2" width="14.4571428571429" style="1" customWidth="1"/>
-    <col min="3" max="3" width="17.6285714285714" style="1" customWidth="1"/>
-    <col min="4" max="4" width="14.4571428571429" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.1809523809524" style="1" customWidth="1"/>
-    <col min="6" max="6" width="16.3619047619048" style="1" customWidth="1"/>
-    <col min="7" max="13" width="14.4571428571429" style="1" customWidth="1"/>
-    <col min="14" max="14" width="25.3619047619048" style="1" customWidth="1"/>
-    <col min="15" max="15" width="23.8190476190476" style="1" customWidth="1"/>
-    <col min="16" max="16" width="23.6285714285714" style="1" customWidth="1"/>
-    <col min="17" max="17" width="20.6285714285714" style="1" customWidth="1"/>
-    <col min="18" max="18" width="18.7238095238095" style="1" customWidth="1"/>
-    <col min="19" max="16384" width="14.4571428571429" style="1"/>
+    <col min="1" max="1" width="14.453125" style="1"/>
+    <col min="2" max="2" width="14.453125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="17.6328125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="14.453125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="16.1796875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="16.36328125" style="1" customWidth="1"/>
+    <col min="7" max="13" width="14.453125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="25.36328125" style="1" customWidth="1"/>
+    <col min="15" max="15" width="23.81640625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="23.6328125" style="1" customWidth="1"/>
+    <col min="17" max="17" width="20.6328125" style="1" customWidth="1"/>
+    <col min="18" max="18" width="18.7265625" style="1" customWidth="1"/>
+    <col min="19" max="16384" width="14.453125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:18" ht="15" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1891,7 +1364,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:18">
+    <row r="2" spans="1:18" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>18</v>
       </c>
@@ -1938,12 +1411,12 @@
       <c r="P2" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="Q2" s="12" t="s">
+      <c r="Q2" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="R2" s="12"/>
-    </row>
-    <row r="3" spans="1:18">
+      <c r="R2" s="18"/>
+    </row>
+    <row r="3" spans="1:18" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>34</v>
       </c>
@@ -1986,12 +1459,12 @@
       <c r="P3" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="Q3" s="12" t="s">
+      <c r="Q3" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="R3" s="12"/>
-    </row>
-    <row r="4" spans="1:18">
+      <c r="R3" s="18"/>
+    </row>
+    <row r="4" spans="1:18" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>44</v>
       </c>
@@ -2032,12 +1505,12 @@
       <c r="P4" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="Q4" s="12" t="s">
+      <c r="Q4" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="R4" s="12"/>
-    </row>
-    <row r="5" spans="1:18">
+      <c r="R4" s="18"/>
+    </row>
+    <row r="5" spans="1:18" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>53</v>
       </c>
@@ -2078,12 +1551,12 @@
       <c r="P5" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="Q5" s="12" t="s">
+      <c r="Q5" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="R5" s="12"/>
-    </row>
-    <row r="6" spans="1:18">
+      <c r="R5" s="18"/>
+    </row>
+    <row r="6" spans="1:18" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>62</v>
       </c>
@@ -2130,10 +1603,10 @@
       <c r="P6" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="Q6" s="12"/>
-      <c r="R6" s="12"/>
-    </row>
-    <row r="7" ht="14.25" spans="1:18">
+      <c r="Q6" s="18"/>
+      <c r="R6" s="18"/>
+    </row>
+    <row r="7" spans="1:18" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>77</v>
       </c>
@@ -2172,12 +1645,12 @@
       <c r="P7" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="Q7" s="12" t="s">
+      <c r="Q7" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="R7" s="12"/>
-    </row>
-    <row r="8" s="1" customFormat="1" ht="14.25" spans="1:18">
+      <c r="R7" s="18"/>
+    </row>
+    <row r="8" spans="1:18" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>88</v>
       </c>
@@ -2216,10 +1689,10 @@
       <c r="P8" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="Q8" s="5"/>
-      <c r="R8" s="5"/>
-    </row>
-    <row r="9" s="1" customFormat="1" ht="14.25" spans="1:18">
+      <c r="Q8" s="19"/>
+      <c r="R8" s="19"/>
+    </row>
+    <row r="9" spans="1:18" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>98</v>
       </c>
@@ -2254,12 +1727,12 @@
       <c r="P9" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="Q9" s="5" t="s">
+      <c r="Q9" s="19" t="s">
         <v>107</v>
       </c>
-      <c r="R9" s="5"/>
-    </row>
-    <row r="10" s="1" customFormat="1" ht="14.25" spans="1:18">
+      <c r="R9" s="19"/>
+    </row>
+    <row r="10" spans="1:18" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A10" s="9" t="s">
         <v>108</v>
       </c>
@@ -2304,10 +1777,10 @@
       <c r="P10" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="Q10" s="5"/>
-      <c r="R10" s="5"/>
-    </row>
-    <row r="11" s="1" customFormat="1" ht="14.25" spans="1:18">
+      <c r="Q10" s="19"/>
+      <c r="R10" s="19"/>
+    </row>
+    <row r="11" spans="1:18" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A11" s="9" t="s">
         <v>121</v>
       </c>
@@ -2354,10 +1827,10 @@
       <c r="P11" s="13" t="s">
         <v>135</v>
       </c>
-      <c r="Q11" s="5"/>
-      <c r="R11" s="5"/>
-    </row>
-    <row r="12" s="1" customFormat="1" ht="14.25" spans="1:16">
+      <c r="Q11" s="19"/>
+      <c r="R11" s="19"/>
+    </row>
+    <row r="12" spans="1:18" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A12" s="9" t="s">
         <v>136</v>
       </c>
@@ -2404,8 +1877,10 @@
       <c r="P12" s="12" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="13" s="1" customFormat="1" ht="14.25" spans="1:16">
+      <c r="Q12" s="19"/>
+      <c r="R12" s="19"/>
+    </row>
+    <row r="13" spans="1:18" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A13" s="9" t="s">
         <v>150</v>
       </c>
@@ -2442,8 +1917,10 @@
       <c r="P13" s="12" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="14" s="1" customFormat="1" ht="14.25" spans="1:16">
+      <c r="Q13" s="19"/>
+      <c r="R13" s="19"/>
+    </row>
+    <row r="14" spans="1:18" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A14" s="9" t="s">
         <v>158</v>
       </c>
@@ -2480,8 +1957,10 @@
       <c r="P14" s="13" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="15" s="1" customFormat="1" ht="14.25" spans="1:16">
+      <c r="Q14" s="19"/>
+      <c r="R14" s="19"/>
+    </row>
+    <row r="15" spans="1:18" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A15" s="9" t="s">
         <v>168</v>
       </c>
@@ -2526,8 +2005,10 @@
       <c r="P15" s="9" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="16" s="1" customFormat="1" ht="14.25" spans="1:16">
+      <c r="Q15" s="19"/>
+      <c r="R15" s="19"/>
+    </row>
+    <row r="16" spans="1:18" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A16" s="9" t="s">
         <v>182</v>
       </c>
@@ -2574,8 +2055,10 @@
       <c r="P16" s="9" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="17" s="1" customFormat="1" ht="14.25" spans="1:16">
+      <c r="Q16" s="19"/>
+      <c r="R16" s="19"/>
+    </row>
+    <row r="17" spans="1:18" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A17" s="9" t="s">
         <v>195</v>
       </c>
@@ -2620,8 +2103,10 @@
         <v>208</v>
       </c>
       <c r="P17" s="13"/>
-    </row>
-    <row r="18" s="1" customFormat="1" ht="14" customHeight="1" spans="1:16">
+      <c r="Q17" s="19"/>
+      <c r="R17" s="19"/>
+    </row>
+    <row r="18" spans="1:18" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="9" t="s">
         <v>209</v>
       </c>
@@ -2668,8 +2153,10 @@
       <c r="P18" s="15" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="19" s="1" customFormat="1" ht="14.25" spans="1:16">
+      <c r="Q18" s="19"/>
+      <c r="R18" s="19"/>
+    </row>
+    <row r="19" spans="1:18" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A19" s="9" t="s">
         <v>224</v>
       </c>
@@ -2712,8 +2199,10 @@
       <c r="P19" s="13" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="20" s="1" customFormat="1" ht="13" customHeight="1" spans="1:16">
+      <c r="Q19" s="19"/>
+      <c r="R19" s="19"/>
+    </row>
+    <row r="20" spans="1:18" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="9" t="s">
         <v>237</v>
       </c>
@@ -2746,8 +2235,10 @@
       <c r="P20" s="13" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="21" s="1" customFormat="1" ht="14.25" spans="1:16">
+      <c r="Q20" s="19"/>
+      <c r="R20" s="19"/>
+    </row>
+    <row r="21" spans="1:18" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A21" s="9" t="s">
         <v>245</v>
       </c>
@@ -2782,8 +2273,10 @@
       <c r="P21" s="13" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="22" s="1" customFormat="1" ht="14.25" spans="1:16">
+      <c r="Q21" s="19"/>
+      <c r="R21" s="19"/>
+    </row>
+    <row r="22" spans="1:18" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A22" s="9" t="s">
         <v>251</v>
       </c>
@@ -2830,22 +2323,54 @@
       <c r="P22" s="15" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="23" spans="2:13">
-      <c r="B23" s="11"/>
-      <c r="C23" s="11"/>
-      <c r="D23" s="11"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="11"/>
-      <c r="G23" s="11"/>
+      <c r="Q22" s="19"/>
+      <c r="R22" s="19"/>
+    </row>
+    <row r="23" spans="1:18" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="B23" s="20" t="s">
+        <v>272</v>
+      </c>
+      <c r="C23" s="19" t="s">
+        <v>271</v>
+      </c>
+      <c r="D23" s="19" t="s">
+        <v>270</v>
+      </c>
+      <c r="E23" s="11" t="s">
+        <v>274</v>
+      </c>
+      <c r="F23" s="11" t="s">
+        <v>276</v>
+      </c>
+      <c r="G23" s="11" t="s">
+        <v>277</v>
+      </c>
       <c r="H23" s="11"/>
       <c r="I23" s="11"/>
       <c r="J23" s="11"/>
       <c r="K23" s="11"/>
       <c r="L23" s="11"/>
       <c r="M23" s="11"/>
-    </row>
-    <row r="24" spans="2:13">
+      <c r="N23" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="O23" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="P23" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="Q23" s="20" t="s">
+        <v>269</v>
+      </c>
+      <c r="R23" s="19" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B24" s="11"/>
       <c r="C24" s="11"/>
       <c r="D24" s="11"/>
@@ -2859,7 +2384,7 @@
       <c r="L24" s="11"/>
       <c r="M24" s="11"/>
     </row>
-    <row r="25" spans="2:13">
+    <row r="25" spans="1:18" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B25" s="11"/>
       <c r="C25" s="11"/>
       <c r="D25" s="11"/>
@@ -2873,7 +2398,7 @@
       <c r="L25" s="11"/>
       <c r="M25" s="11"/>
     </row>
-    <row r="26" spans="2:13">
+    <row r="26" spans="1:18" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B26" s="11"/>
       <c r="C26" s="11"/>
       <c r="D26" s="11"/>
@@ -2887,7 +2412,7 @@
       <c r="L26" s="11"/>
       <c r="M26" s="11"/>
     </row>
-    <row r="27" spans="2:13">
+    <row r="27" spans="1:18" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B27" s="11"/>
       <c r="C27" s="11"/>
       <c r="D27" s="11"/>
@@ -2901,7 +2426,7 @@
       <c r="L27" s="11"/>
       <c r="M27" s="11"/>
     </row>
-    <row r="28" spans="2:13">
+    <row r="28" spans="1:18" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B28" s="11"/>
       <c r="C28" s="11"/>
       <c r="D28" s="11"/>
@@ -2915,7 +2440,7 @@
       <c r="L28" s="11"/>
       <c r="M28" s="11"/>
     </row>
-    <row r="29" spans="2:13">
+    <row r="29" spans="1:18" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B29" s="11"/>
       <c r="C29" s="11"/>
       <c r="D29" s="11"/>
@@ -2929,7 +2454,7 @@
       <c r="L29" s="11"/>
       <c r="M29" s="11"/>
     </row>
-    <row r="30" spans="2:13">
+    <row r="30" spans="1:18" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B30" s="11"/>
       <c r="C30" s="11"/>
       <c r="D30" s="11"/>
@@ -2943,7 +2468,7 @@
       <c r="L30" s="11"/>
       <c r="M30" s="11"/>
     </row>
-    <row r="31" spans="2:13">
+    <row r="31" spans="1:18" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B31" s="11"/>
       <c r="C31" s="11"/>
       <c r="D31" s="11"/>
@@ -2957,7 +2482,7 @@
       <c r="L31" s="11"/>
       <c r="M31" s="11"/>
     </row>
-    <row r="32" spans="2:13">
+    <row r="32" spans="1:18" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B32" s="11"/>
       <c r="C32" s="11"/>
       <c r="D32" s="11"/>
@@ -2971,7 +2496,7 @@
       <c r="L32" s="11"/>
       <c r="M32" s="11"/>
     </row>
-    <row r="33" spans="2:13">
+    <row r="33" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B33" s="11"/>
       <c r="C33" s="11"/>
       <c r="D33" s="11"/>
@@ -2985,7 +2510,7 @@
       <c r="L33" s="11"/>
       <c r="M33" s="11"/>
     </row>
-    <row r="34" spans="2:13">
+    <row r="34" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B34" s="11"/>
       <c r="C34" s="11"/>
       <c r="D34" s="11"/>
@@ -2999,7 +2524,7 @@
       <c r="L34" s="11"/>
       <c r="M34" s="11"/>
     </row>
-    <row r="35" spans="2:13">
+    <row r="35" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B35" s="11"/>
       <c r="C35" s="11"/>
       <c r="D35" s="11"/>
@@ -3013,7 +2538,7 @@
       <c r="L35" s="11"/>
       <c r="M35" s="11"/>
     </row>
-    <row r="36" spans="2:13">
+    <row r="36" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B36" s="11"/>
       <c r="C36" s="11"/>
       <c r="D36" s="11"/>
@@ -3027,7 +2552,7 @@
       <c r="L36" s="11"/>
       <c r="M36" s="11"/>
     </row>
-    <row r="37" spans="2:13">
+    <row r="37" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B37" s="11"/>
       <c r="C37" s="11"/>
       <c r="D37" s="11"/>
@@ -3041,7 +2566,7 @@
       <c r="L37" s="11"/>
       <c r="M37" s="11"/>
     </row>
-    <row r="38" spans="2:13">
+    <row r="38" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B38" s="11"/>
       <c r="C38" s="11"/>
       <c r="D38" s="11"/>
@@ -3055,7 +2580,7 @@
       <c r="L38" s="11"/>
       <c r="M38" s="11"/>
     </row>
-    <row r="39" spans="2:13">
+    <row r="39" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B39" s="11"/>
       <c r="C39" s="11"/>
       <c r="D39" s="11"/>
@@ -3069,7 +2594,7 @@
       <c r="L39" s="11"/>
       <c r="M39" s="11"/>
     </row>
-    <row r="40" spans="2:13">
+    <row r="40" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B40" s="11"/>
       <c r="C40" s="11"/>
       <c r="D40" s="11"/>
@@ -3083,7 +2608,7 @@
       <c r="L40" s="11"/>
       <c r="M40" s="11"/>
     </row>
-    <row r="41" spans="2:13">
+    <row r="41" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B41" s="11"/>
       <c r="C41" s="11"/>
       <c r="D41" s="11"/>
@@ -3097,7 +2622,7 @@
       <c r="L41" s="11"/>
       <c r="M41" s="11"/>
     </row>
-    <row r="42" spans="2:13">
+    <row r="42" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B42" s="11"/>
       <c r="C42" s="11"/>
       <c r="D42" s="11"/>
@@ -3111,7 +2636,7 @@
       <c r="L42" s="11"/>
       <c r="M42" s="11"/>
     </row>
-    <row r="43" spans="2:13">
+    <row r="43" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B43" s="11"/>
       <c r="C43" s="11"/>
       <c r="D43" s="11"/>
@@ -3125,7 +2650,7 @@
       <c r="L43" s="11"/>
       <c r="M43" s="11"/>
     </row>
-    <row r="44" spans="2:13">
+    <row r="44" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B44" s="11"/>
       <c r="C44" s="11"/>
       <c r="D44" s="11"/>
@@ -3139,7 +2664,7 @@
       <c r="L44" s="11"/>
       <c r="M44" s="11"/>
     </row>
-    <row r="45" spans="2:13">
+    <row r="45" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B45" s="11"/>
       <c r="C45" s="11"/>
       <c r="D45" s="11"/>
@@ -3153,7 +2678,7 @@
       <c r="L45" s="11"/>
       <c r="M45" s="11"/>
     </row>
-    <row r="46" spans="2:13">
+    <row r="46" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B46" s="11"/>
       <c r="C46" s="11"/>
       <c r="D46" s="11"/>
@@ -3167,7 +2692,7 @@
       <c r="L46" s="11"/>
       <c r="M46" s="11"/>
     </row>
-    <row r="47" spans="2:13">
+    <row r="47" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B47" s="11"/>
       <c r="C47" s="11"/>
       <c r="D47" s="11"/>
@@ -3181,7 +2706,7 @@
       <c r="L47" s="11"/>
       <c r="M47" s="11"/>
     </row>
-    <row r="48" spans="2:13">
+    <row r="48" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B48" s="11"/>
       <c r="C48" s="11"/>
       <c r="D48" s="11"/>
@@ -3195,7 +2720,7 @@
       <c r="L48" s="11"/>
       <c r="M48" s="11"/>
     </row>
-    <row r="49" spans="2:13">
+    <row r="49" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B49" s="11"/>
       <c r="C49" s="11"/>
       <c r="D49" s="11"/>
@@ -3209,7 +2734,7 @@
       <c r="L49" s="11"/>
       <c r="M49" s="11"/>
     </row>
-    <row r="50" spans="2:13">
+    <row r="50" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B50" s="11"/>
       <c r="C50" s="11"/>
       <c r="D50" s="11"/>
@@ -3223,7 +2748,7 @@
       <c r="L50" s="11"/>
       <c r="M50" s="11"/>
     </row>
-    <row r="51" spans="2:13">
+    <row r="51" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B51" s="11"/>
       <c r="C51" s="11"/>
       <c r="D51" s="11"/>
@@ -3237,7 +2762,7 @@
       <c r="L51" s="11"/>
       <c r="M51" s="11"/>
     </row>
-    <row r="52" spans="2:13">
+    <row r="52" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B52" s="11"/>
       <c r="C52" s="11"/>
       <c r="D52" s="11"/>
@@ -3251,7 +2776,7 @@
       <c r="L52" s="11"/>
       <c r="M52" s="11"/>
     </row>
-    <row r="53" spans="2:13">
+    <row r="53" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B53" s="11"/>
       <c r="C53" s="11"/>
       <c r="D53" s="11"/>
@@ -3265,7 +2790,7 @@
       <c r="L53" s="11"/>
       <c r="M53" s="11"/>
     </row>
-    <row r="54" spans="2:13">
+    <row r="54" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B54" s="11"/>
       <c r="C54" s="11"/>
       <c r="D54" s="11"/>
@@ -3279,7 +2804,7 @@
       <c r="L54" s="11"/>
       <c r="M54" s="11"/>
     </row>
-    <row r="55" spans="2:13">
+    <row r="55" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B55" s="11"/>
       <c r="C55" s="11"/>
       <c r="D55" s="11"/>
@@ -3293,7 +2818,7 @@
       <c r="L55" s="11"/>
       <c r="M55" s="11"/>
     </row>
-    <row r="56" spans="2:13">
+    <row r="56" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B56" s="11"/>
       <c r="C56" s="11"/>
       <c r="D56" s="11"/>
@@ -3307,7 +2832,7 @@
       <c r="L56" s="11"/>
       <c r="M56" s="11"/>
     </row>
-    <row r="57" spans="2:13">
+    <row r="57" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B57" s="11"/>
       <c r="C57" s="11"/>
       <c r="D57" s="11"/>
@@ -3321,7 +2846,7 @@
       <c r="L57" s="11"/>
       <c r="M57" s="11"/>
     </row>
-    <row r="58" spans="2:13">
+    <row r="58" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B58" s="11"/>
       <c r="C58" s="11"/>
       <c r="D58" s="11"/>
@@ -3335,7 +2860,7 @@
       <c r="L58" s="11"/>
       <c r="M58" s="11"/>
     </row>
-    <row r="59" spans="2:13">
+    <row r="59" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B59" s="11"/>
       <c r="C59" s="11"/>
       <c r="D59" s="11"/>
@@ -3349,7 +2874,7 @@
       <c r="L59" s="11"/>
       <c r="M59" s="11"/>
     </row>
-    <row r="60" spans="2:13">
+    <row r="60" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B60" s="11"/>
       <c r="C60" s="11"/>
       <c r="D60" s="11"/>
@@ -3363,7 +2888,7 @@
       <c r="L60" s="11"/>
       <c r="M60" s="11"/>
     </row>
-    <row r="61" spans="2:13">
+    <row r="61" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B61" s="11"/>
       <c r="C61" s="11"/>
       <c r="D61" s="11"/>
@@ -3377,7 +2902,7 @@
       <c r="L61" s="11"/>
       <c r="M61" s="11"/>
     </row>
-    <row r="62" spans="2:13">
+    <row r="62" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B62" s="11"/>
       <c r="C62" s="11"/>
       <c r="D62" s="11"/>
@@ -3391,7 +2916,7 @@
       <c r="L62" s="11"/>
       <c r="M62" s="11"/>
     </row>
-    <row r="63" spans="2:13">
+    <row r="63" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B63" s="11"/>
       <c r="C63" s="11"/>
       <c r="D63" s="11"/>
@@ -3405,7 +2930,7 @@
       <c r="L63" s="11"/>
       <c r="M63" s="11"/>
     </row>
-    <row r="64" spans="2:13">
+    <row r="64" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B64" s="11"/>
       <c r="C64" s="11"/>
       <c r="D64" s="11"/>
@@ -3419,7 +2944,7 @@
       <c r="L64" s="11"/>
       <c r="M64" s="11"/>
     </row>
-    <row r="65" spans="2:13">
+    <row r="65" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B65" s="11"/>
       <c r="C65" s="11"/>
       <c r="D65" s="11"/>
@@ -3433,7 +2958,7 @@
       <c r="L65" s="11"/>
       <c r="M65" s="11"/>
     </row>
-    <row r="66" spans="2:13">
+    <row r="66" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B66" s="11"/>
       <c r="C66" s="11"/>
       <c r="D66" s="11"/>
@@ -3447,7 +2972,7 @@
       <c r="L66" s="11"/>
       <c r="M66" s="11"/>
     </row>
-    <row r="67" spans="2:13">
+    <row r="67" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B67" s="11"/>
       <c r="C67" s="11"/>
       <c r="D67" s="11"/>
@@ -3461,7 +2986,7 @@
       <c r="L67" s="11"/>
       <c r="M67" s="11"/>
     </row>
-    <row r="68" spans="2:13">
+    <row r="68" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B68" s="11"/>
       <c r="C68" s="11"/>
       <c r="D68" s="11"/>
@@ -3475,7 +3000,7 @@
       <c r="L68" s="11"/>
       <c r="M68" s="11"/>
     </row>
-    <row r="69" spans="2:13">
+    <row r="69" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B69" s="11"/>
       <c r="C69" s="11"/>
       <c r="D69" s="11"/>
@@ -3489,7 +3014,7 @@
       <c r="L69" s="11"/>
       <c r="M69" s="11"/>
     </row>
-    <row r="70" spans="2:13">
+    <row r="70" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B70" s="11"/>
       <c r="C70" s="11"/>
       <c r="D70" s="11"/>
@@ -3503,7 +3028,7 @@
       <c r="L70" s="11"/>
       <c r="M70" s="11"/>
     </row>
-    <row r="71" spans="2:13">
+    <row r="71" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B71" s="11"/>
       <c r="C71" s="11"/>
       <c r="D71" s="11"/>
@@ -3517,7 +3042,7 @@
       <c r="L71" s="11"/>
       <c r="M71" s="11"/>
     </row>
-    <row r="72" spans="2:13">
+    <row r="72" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B72" s="11"/>
       <c r="C72" s="11"/>
       <c r="D72" s="11"/>
@@ -3531,7 +3056,7 @@
       <c r="L72" s="11"/>
       <c r="M72" s="11"/>
     </row>
-    <row r="73" spans="2:13">
+    <row r="73" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B73" s="11"/>
       <c r="C73" s="11"/>
       <c r="D73" s="11"/>
@@ -3545,7 +3070,7 @@
       <c r="L73" s="11"/>
       <c r="M73" s="11"/>
     </row>
-    <row r="74" spans="2:13">
+    <row r="74" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B74" s="11"/>
       <c r="C74" s="11"/>
       <c r="D74" s="11"/>
@@ -3559,7 +3084,7 @@
       <c r="L74" s="11"/>
       <c r="M74" s="11"/>
     </row>
-    <row r="75" spans="2:13">
+    <row r="75" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B75" s="11"/>
       <c r="C75" s="11"/>
       <c r="D75" s="11"/>
@@ -3573,7 +3098,7 @@
       <c r="L75" s="11"/>
       <c r="M75" s="11"/>
     </row>
-    <row r="76" spans="2:13">
+    <row r="76" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B76" s="11"/>
       <c r="C76" s="11"/>
       <c r="D76" s="11"/>
@@ -3587,7 +3112,7 @@
       <c r="L76" s="11"/>
       <c r="M76" s="11"/>
     </row>
-    <row r="77" spans="2:13">
+    <row r="77" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B77" s="11"/>
       <c r="C77" s="11"/>
       <c r="D77" s="11"/>
@@ -3601,7 +3126,7 @@
       <c r="L77" s="11"/>
       <c r="M77" s="11"/>
     </row>
-    <row r="78" spans="2:13">
+    <row r="78" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B78" s="11"/>
       <c r="C78" s="11"/>
       <c r="D78" s="11"/>
@@ -3615,7 +3140,7 @@
       <c r="L78" s="11"/>
       <c r="M78" s="11"/>
     </row>
-    <row r="79" spans="2:13">
+    <row r="79" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B79" s="11"/>
       <c r="C79" s="11"/>
       <c r="D79" s="11"/>
@@ -3629,7 +3154,7 @@
       <c r="L79" s="11"/>
       <c r="M79" s="11"/>
     </row>
-    <row r="80" spans="2:13">
+    <row r="80" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B80" s="11"/>
       <c r="C80" s="11"/>
       <c r="D80" s="11"/>
@@ -3643,7 +3168,7 @@
       <c r="L80" s="11"/>
       <c r="M80" s="11"/>
     </row>
-    <row r="81" spans="2:13">
+    <row r="81" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B81" s="11"/>
       <c r="C81" s="11"/>
       <c r="D81" s="11"/>
@@ -3657,7 +3182,7 @@
       <c r="L81" s="11"/>
       <c r="M81" s="11"/>
     </row>
-    <row r="82" spans="2:13">
+    <row r="82" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B82" s="11"/>
       <c r="C82" s="11"/>
       <c r="D82" s="11"/>
@@ -3671,7 +3196,7 @@
       <c r="L82" s="11"/>
       <c r="M82" s="11"/>
     </row>
-    <row r="83" spans="2:13">
+    <row r="83" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B83" s="11"/>
       <c r="C83" s="11"/>
       <c r="D83" s="11"/>
@@ -3685,7 +3210,7 @@
       <c r="L83" s="11"/>
       <c r="M83" s="11"/>
     </row>
-    <row r="84" spans="2:13">
+    <row r="84" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B84" s="11"/>
       <c r="C84" s="11"/>
       <c r="D84" s="11"/>
@@ -3699,7 +3224,7 @@
       <c r="L84" s="11"/>
       <c r="M84" s="11"/>
     </row>
-    <row r="85" spans="2:13">
+    <row r="85" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B85" s="11"/>
       <c r="C85" s="11"/>
       <c r="D85" s="11"/>
@@ -3713,7 +3238,7 @@
       <c r="L85" s="11"/>
       <c r="M85" s="11"/>
     </row>
-    <row r="86" spans="2:13">
+    <row r="86" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B86" s="11"/>
       <c r="C86" s="11"/>
       <c r="D86" s="11"/>
@@ -3727,7 +3252,7 @@
       <c r="L86" s="11"/>
       <c r="M86" s="11"/>
     </row>
-    <row r="87" spans="2:13">
+    <row r="87" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B87" s="11"/>
       <c r="C87" s="11"/>
       <c r="D87" s="11"/>
@@ -3741,7 +3266,7 @@
       <c r="L87" s="11"/>
       <c r="M87" s="11"/>
     </row>
-    <row r="88" spans="2:13">
+    <row r="88" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B88" s="11"/>
       <c r="C88" s="11"/>
       <c r="D88" s="11"/>
@@ -3755,7 +3280,7 @@
       <c r="L88" s="11"/>
       <c r="M88" s="11"/>
     </row>
-    <row r="89" spans="2:13">
+    <row r="89" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B89" s="11"/>
       <c r="C89" s="11"/>
       <c r="D89" s="11"/>
@@ -3769,7 +3294,7 @@
       <c r="L89" s="11"/>
       <c r="M89" s="11"/>
     </row>
-    <row r="90" spans="2:13">
+    <row r="90" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B90" s="11"/>
       <c r="C90" s="11"/>
       <c r="D90" s="11"/>
@@ -3783,7 +3308,7 @@
       <c r="L90" s="11"/>
       <c r="M90" s="11"/>
     </row>
-    <row r="91" spans="2:13">
+    <row r="91" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B91" s="11"/>
       <c r="C91" s="11"/>
       <c r="D91" s="11"/>
@@ -3797,7 +3322,7 @@
       <c r="L91" s="11"/>
       <c r="M91" s="11"/>
     </row>
-    <row r="92" spans="2:13">
+    <row r="92" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B92" s="11"/>
       <c r="C92" s="11"/>
       <c r="D92" s="11"/>
@@ -3811,7 +3336,7 @@
       <c r="L92" s="11"/>
       <c r="M92" s="11"/>
     </row>
-    <row r="93" spans="2:13">
+    <row r="93" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B93" s="11"/>
       <c r="C93" s="11"/>
       <c r="D93" s="11"/>
@@ -3825,7 +3350,7 @@
       <c r="L93" s="11"/>
       <c r="M93" s="11"/>
     </row>
-    <row r="94" spans="2:13">
+    <row r="94" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B94" s="11"/>
       <c r="C94" s="11"/>
       <c r="D94" s="11"/>
@@ -3839,7 +3364,7 @@
       <c r="L94" s="11"/>
       <c r="M94" s="11"/>
     </row>
-    <row r="95" spans="2:13">
+    <row r="95" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B95" s="11"/>
       <c r="C95" s="11"/>
       <c r="D95" s="11"/>
@@ -3853,7 +3378,7 @@
       <c r="L95" s="11"/>
       <c r="M95" s="11"/>
     </row>
-    <row r="96" spans="2:13">
+    <row r="96" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B96" s="11"/>
       <c r="C96" s="11"/>
       <c r="D96" s="11"/>
@@ -3867,7 +3392,7 @@
       <c r="L96" s="11"/>
       <c r="M96" s="11"/>
     </row>
-    <row r="97" spans="2:13">
+    <row r="97" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B97" s="11"/>
       <c r="C97" s="11"/>
       <c r="D97" s="11"/>
@@ -3881,7 +3406,7 @@
       <c r="L97" s="11"/>
       <c r="M97" s="11"/>
     </row>
-    <row r="98" spans="2:13">
+    <row r="98" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B98" s="11"/>
       <c r="C98" s="11"/>
       <c r="D98" s="11"/>
@@ -3895,7 +3420,7 @@
       <c r="L98" s="11"/>
       <c r="M98" s="11"/>
     </row>
-    <row r="99" spans="2:13">
+    <row r="99" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B99" s="11"/>
       <c r="C99" s="11"/>
       <c r="D99" s="11"/>
@@ -3909,7 +3434,7 @@
       <c r="L99" s="11"/>
       <c r="M99" s="11"/>
     </row>
-    <row r="100" spans="2:13">
+    <row r="100" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B100" s="11"/>
       <c r="C100" s="11"/>
       <c r="D100" s="11"/>
@@ -3923,7 +3448,7 @@
       <c r="L100" s="11"/>
       <c r="M100" s="11"/>
     </row>
-    <row r="101" spans="2:13">
+    <row r="101" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B101" s="11"/>
       <c r="C101" s="11"/>
       <c r="D101" s="11"/>
@@ -3937,7 +3462,7 @@
       <c r="L101" s="11"/>
       <c r="M101" s="11"/>
     </row>
-    <row r="102" spans="2:13">
+    <row r="102" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B102" s="11"/>
       <c r="C102" s="11"/>
       <c r="D102" s="11"/>
@@ -3951,7 +3476,7 @@
       <c r="L102" s="11"/>
       <c r="M102" s="11"/>
     </row>
-    <row r="103" spans="2:13">
+    <row r="103" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B103" s="11"/>
       <c r="C103" s="11"/>
       <c r="D103" s="11"/>
@@ -3965,7 +3490,7 @@
       <c r="L103" s="11"/>
       <c r="M103" s="11"/>
     </row>
-    <row r="104" spans="2:13">
+    <row r="104" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B104" s="11"/>
       <c r="C104" s="11"/>
       <c r="D104" s="11"/>
@@ -3979,7 +3504,7 @@
       <c r="L104" s="11"/>
       <c r="M104" s="11"/>
     </row>
-    <row r="105" spans="2:13">
+    <row r="105" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B105" s="11"/>
       <c r="C105" s="11"/>
       <c r="D105" s="11"/>
@@ -3993,7 +3518,7 @@
       <c r="L105" s="11"/>
       <c r="M105" s="11"/>
     </row>
-    <row r="106" spans="2:13">
+    <row r="106" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B106" s="11"/>
       <c r="C106" s="11"/>
       <c r="D106" s="11"/>
@@ -4007,7 +3532,7 @@
       <c r="L106" s="11"/>
       <c r="M106" s="11"/>
     </row>
-    <row r="107" spans="2:13">
+    <row r="107" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B107" s="11"/>
       <c r="C107" s="11"/>
       <c r="D107" s="11"/>
@@ -4021,7 +3546,7 @@
       <c r="L107" s="11"/>
       <c r="M107" s="11"/>
     </row>
-    <row r="108" spans="2:13">
+    <row r="108" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B108" s="11"/>
       <c r="C108" s="11"/>
       <c r="D108" s="11"/>
@@ -4035,7 +3560,7 @@
       <c r="L108" s="11"/>
       <c r="M108" s="11"/>
     </row>
-    <row r="109" spans="2:13">
+    <row r="109" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B109" s="11"/>
       <c r="C109" s="11"/>
       <c r="D109" s="11"/>
@@ -4049,7 +3574,7 @@
       <c r="L109" s="11"/>
       <c r="M109" s="11"/>
     </row>
-    <row r="110" spans="2:13">
+    <row r="110" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B110" s="11"/>
       <c r="C110" s="11"/>
       <c r="D110" s="11"/>
@@ -4063,7 +3588,7 @@
       <c r="L110" s="11"/>
       <c r="M110" s="11"/>
     </row>
-    <row r="111" spans="2:13">
+    <row r="111" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B111" s="11"/>
       <c r="C111" s="11"/>
       <c r="D111" s="11"/>
@@ -4077,7 +3602,7 @@
       <c r="L111" s="11"/>
       <c r="M111" s="11"/>
     </row>
-    <row r="112" spans="2:13">
+    <row r="112" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B112" s="11"/>
       <c r="C112" s="11"/>
       <c r="D112" s="11"/>
@@ -4091,7 +3616,7 @@
       <c r="L112" s="11"/>
       <c r="M112" s="11"/>
     </row>
-    <row r="113" spans="2:13">
+    <row r="113" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B113" s="11"/>
       <c r="C113" s="11"/>
       <c r="D113" s="11"/>
@@ -4105,7 +3630,7 @@
       <c r="L113" s="11"/>
       <c r="M113" s="11"/>
     </row>
-    <row r="114" spans="2:13">
+    <row r="114" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B114" s="11"/>
       <c r="C114" s="11"/>
       <c r="D114" s="11"/>
@@ -4119,7 +3644,7 @@
       <c r="L114" s="11"/>
       <c r="M114" s="11"/>
     </row>
-    <row r="115" spans="2:13">
+    <row r="115" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B115" s="11"/>
       <c r="C115" s="11"/>
       <c r="D115" s="11"/>
@@ -4133,7 +3658,7 @@
       <c r="L115" s="11"/>
       <c r="M115" s="11"/>
     </row>
-    <row r="116" spans="2:13">
+    <row r="116" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B116" s="11"/>
       <c r="C116" s="11"/>
       <c r="D116" s="11"/>
@@ -4147,7 +3672,7 @@
       <c r="L116" s="11"/>
       <c r="M116" s="11"/>
     </row>
-    <row r="117" spans="2:13">
+    <row r="117" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B117" s="11"/>
       <c r="C117" s="11"/>
       <c r="D117" s="11"/>
@@ -4161,7 +3686,7 @@
       <c r="L117" s="11"/>
       <c r="M117" s="11"/>
     </row>
-    <row r="118" spans="2:13">
+    <row r="118" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B118" s="11"/>
       <c r="C118" s="11"/>
       <c r="D118" s="11"/>
@@ -4175,7 +3700,7 @@
       <c r="L118" s="11"/>
       <c r="M118" s="11"/>
     </row>
-    <row r="119" spans="2:13">
+    <row r="119" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B119" s="11"/>
       <c r="C119" s="11"/>
       <c r="D119" s="11"/>
@@ -4189,7 +3714,7 @@
       <c r="L119" s="11"/>
       <c r="M119" s="11"/>
     </row>
-    <row r="120" spans="2:13">
+    <row r="120" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B120" s="11"/>
       <c r="C120" s="11"/>
       <c r="D120" s="11"/>
@@ -4203,7 +3728,7 @@
       <c r="L120" s="11"/>
       <c r="M120" s="11"/>
     </row>
-    <row r="121" spans="2:13">
+    <row r="121" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B121" s="11"/>
       <c r="C121" s="11"/>
       <c r="D121" s="11"/>
@@ -4217,7 +3742,7 @@
       <c r="L121" s="11"/>
       <c r="M121" s="11"/>
     </row>
-    <row r="122" spans="2:13">
+    <row r="122" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B122" s="11"/>
       <c r="C122" s="11"/>
       <c r="D122" s="11"/>
@@ -4231,7 +3756,7 @@
       <c r="L122" s="11"/>
       <c r="M122" s="11"/>
     </row>
-    <row r="123" spans="2:13">
+    <row r="123" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B123" s="11"/>
       <c r="C123" s="11"/>
       <c r="D123" s="11"/>
@@ -4245,7 +3770,7 @@
       <c r="L123" s="11"/>
       <c r="M123" s="11"/>
     </row>
-    <row r="124" spans="2:13">
+    <row r="124" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B124" s="11"/>
       <c r="C124" s="11"/>
       <c r="D124" s="11"/>
@@ -4259,7 +3784,7 @@
       <c r="L124" s="11"/>
       <c r="M124" s="11"/>
     </row>
-    <row r="125" spans="2:13">
+    <row r="125" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B125" s="11"/>
       <c r="C125" s="11"/>
       <c r="D125" s="11"/>
@@ -4273,7 +3798,7 @@
       <c r="L125" s="11"/>
       <c r="M125" s="11"/>
     </row>
-    <row r="126" spans="2:13">
+    <row r="126" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B126" s="11"/>
       <c r="C126" s="11"/>
       <c r="D126" s="11"/>
@@ -4287,7 +3812,7 @@
       <c r="L126" s="11"/>
       <c r="M126" s="11"/>
     </row>
-    <row r="127" spans="2:13">
+    <row r="127" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B127" s="11"/>
       <c r="C127" s="11"/>
       <c r="D127" s="11"/>
@@ -4301,7 +3826,7 @@
       <c r="L127" s="11"/>
       <c r="M127" s="11"/>
     </row>
-    <row r="128" spans="2:13">
+    <row r="128" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B128" s="11"/>
       <c r="C128" s="11"/>
       <c r="D128" s="11"/>
@@ -4315,7 +3840,7 @@
       <c r="L128" s="11"/>
       <c r="M128" s="11"/>
     </row>
-    <row r="129" spans="2:13">
+    <row r="129" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B129" s="11"/>
       <c r="C129" s="11"/>
       <c r="D129" s="11"/>
@@ -4329,7 +3854,7 @@
       <c r="L129" s="11"/>
       <c r="M129" s="11"/>
     </row>
-    <row r="130" spans="2:13">
+    <row r="130" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B130" s="11"/>
       <c r="C130" s="11"/>
       <c r="D130" s="11"/>
@@ -4343,7 +3868,7 @@
       <c r="L130" s="11"/>
       <c r="M130" s="11"/>
     </row>
-    <row r="131" spans="2:13">
+    <row r="131" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B131" s="11"/>
       <c r="C131" s="11"/>
       <c r="D131" s="11"/>
@@ -4357,7 +3882,7 @@
       <c r="L131" s="11"/>
       <c r="M131" s="11"/>
     </row>
-    <row r="132" spans="2:13">
+    <row r="132" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B132" s="11"/>
       <c r="C132" s="11"/>
       <c r="D132" s="11"/>
@@ -4371,7 +3896,7 @@
       <c r="L132" s="11"/>
       <c r="M132" s="11"/>
     </row>
-    <row r="133" spans="2:13">
+    <row r="133" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B133" s="11"/>
       <c r="C133" s="11"/>
       <c r="D133" s="11"/>
@@ -4385,7 +3910,7 @@
       <c r="L133" s="11"/>
       <c r="M133" s="11"/>
     </row>
-    <row r="134" spans="2:13">
+    <row r="134" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B134" s="11"/>
       <c r="C134" s="11"/>
       <c r="D134" s="11"/>
@@ -4399,7 +3924,7 @@
       <c r="L134" s="11"/>
       <c r="M134" s="11"/>
     </row>
-    <row r="135" spans="2:13">
+    <row r="135" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B135" s="11"/>
       <c r="C135" s="11"/>
       <c r="D135" s="11"/>
@@ -4413,7 +3938,7 @@
       <c r="L135" s="11"/>
       <c r="M135" s="11"/>
     </row>
-    <row r="136" spans="2:13">
+    <row r="136" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B136" s="11"/>
       <c r="C136" s="11"/>
       <c r="D136" s="11"/>
@@ -4427,7 +3952,7 @@
       <c r="L136" s="11"/>
       <c r="M136" s="11"/>
     </row>
-    <row r="137" spans="2:13">
+    <row r="137" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B137" s="11"/>
       <c r="C137" s="11"/>
       <c r="D137" s="11"/>
@@ -4441,7 +3966,7 @@
       <c r="L137" s="11"/>
       <c r="M137" s="11"/>
     </row>
-    <row r="138" spans="2:13">
+    <row r="138" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B138" s="11"/>
       <c r="C138" s="11"/>
       <c r="D138" s="11"/>
@@ -4455,7 +3980,7 @@
       <c r="L138" s="11"/>
       <c r="M138" s="11"/>
     </row>
-    <row r="139" spans="2:13">
+    <row r="139" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B139" s="11"/>
       <c r="C139" s="11"/>
       <c r="D139" s="11"/>
@@ -4469,7 +3994,7 @@
       <c r="L139" s="11"/>
       <c r="M139" s="11"/>
     </row>
-    <row r="140" spans="2:13">
+    <row r="140" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B140" s="11"/>
       <c r="C140" s="11"/>
       <c r="D140" s="11"/>
@@ -4483,7 +4008,7 @@
       <c r="L140" s="11"/>
       <c r="M140" s="11"/>
     </row>
-    <row r="141" spans="2:13">
+    <row r="141" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B141" s="11"/>
       <c r="C141" s="11"/>
       <c r="D141" s="11"/>
@@ -4497,7 +4022,7 @@
       <c r="L141" s="11"/>
       <c r="M141" s="11"/>
     </row>
-    <row r="142" spans="2:13">
+    <row r="142" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B142" s="11"/>
       <c r="C142" s="11"/>
       <c r="D142" s="11"/>
@@ -4511,7 +4036,7 @@
       <c r="L142" s="11"/>
       <c r="M142" s="11"/>
     </row>
-    <row r="143" spans="2:13">
+    <row r="143" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B143" s="11"/>
       <c r="C143" s="11"/>
       <c r="D143" s="11"/>
@@ -4525,7 +4050,7 @@
       <c r="L143" s="11"/>
       <c r="M143" s="11"/>
     </row>
-    <row r="144" spans="2:13">
+    <row r="144" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B144" s="11"/>
       <c r="C144" s="11"/>
       <c r="D144" s="11"/>
@@ -4539,7 +4064,7 @@
       <c r="L144" s="11"/>
       <c r="M144" s="11"/>
     </row>
-    <row r="145" spans="2:13">
+    <row r="145" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B145" s="11"/>
       <c r="C145" s="11"/>
       <c r="D145" s="11"/>
@@ -4553,7 +4078,7 @@
       <c r="L145" s="11"/>
       <c r="M145" s="11"/>
     </row>
-    <row r="146" spans="2:13">
+    <row r="146" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B146" s="11"/>
       <c r="C146" s="11"/>
       <c r="D146" s="11"/>
@@ -4567,7 +4092,7 @@
       <c r="L146" s="11"/>
       <c r="M146" s="11"/>
     </row>
-    <row r="147" spans="2:13">
+    <row r="147" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B147" s="11"/>
       <c r="C147" s="11"/>
       <c r="D147" s="11"/>
@@ -4581,7 +4106,7 @@
       <c r="L147" s="11"/>
       <c r="M147" s="11"/>
     </row>
-    <row r="148" spans="2:13">
+    <row r="148" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B148" s="11"/>
       <c r="C148" s="11"/>
       <c r="D148" s="11"/>
@@ -4595,7 +4120,7 @@
       <c r="L148" s="11"/>
       <c r="M148" s="11"/>
     </row>
-    <row r="149" spans="2:13">
+    <row r="149" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B149" s="11"/>
       <c r="C149" s="11"/>
       <c r="D149" s="11"/>
@@ -4609,7 +4134,7 @@
       <c r="L149" s="11"/>
       <c r="M149" s="11"/>
     </row>
-    <row r="150" spans="2:13">
+    <row r="150" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B150" s="11"/>
       <c r="C150" s="11"/>
       <c r="D150" s="11"/>
@@ -4623,7 +4148,7 @@
       <c r="L150" s="11"/>
       <c r="M150" s="11"/>
     </row>
-    <row r="151" spans="2:13">
+    <row r="151" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B151" s="11"/>
       <c r="C151" s="11"/>
       <c r="D151" s="11"/>
@@ -4637,7 +4162,7 @@
       <c r="L151" s="11"/>
       <c r="M151" s="11"/>
     </row>
-    <row r="152" spans="2:13">
+    <row r="152" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B152" s="11"/>
       <c r="C152" s="11"/>
       <c r="D152" s="11"/>
@@ -4651,7 +4176,7 @@
       <c r="L152" s="11"/>
       <c r="M152" s="11"/>
     </row>
-    <row r="153" spans="2:13">
+    <row r="153" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B153" s="11"/>
       <c r="C153" s="11"/>
       <c r="D153" s="11"/>
@@ -4665,7 +4190,7 @@
       <c r="L153" s="11"/>
       <c r="M153" s="11"/>
     </row>
-    <row r="154" spans="2:13">
+    <row r="154" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B154" s="11"/>
       <c r="C154" s="11"/>
       <c r="D154" s="11"/>
@@ -4679,7 +4204,7 @@
       <c r="L154" s="11"/>
       <c r="M154" s="11"/>
     </row>
-    <row r="155" spans="2:13">
+    <row r="155" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B155" s="11"/>
       <c r="C155" s="11"/>
       <c r="D155" s="11"/>
@@ -4693,7 +4218,7 @@
       <c r="L155" s="11"/>
       <c r="M155" s="11"/>
     </row>
-    <row r="156" spans="2:13">
+    <row r="156" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B156" s="11"/>
       <c r="C156" s="11"/>
       <c r="D156" s="11"/>
@@ -4707,7 +4232,7 @@
       <c r="L156" s="11"/>
       <c r="M156" s="11"/>
     </row>
-    <row r="157" spans="2:13">
+    <row r="157" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B157" s="11"/>
       <c r="C157" s="11"/>
       <c r="D157" s="11"/>
@@ -4721,7 +4246,7 @@
       <c r="L157" s="11"/>
       <c r="M157" s="11"/>
     </row>
-    <row r="158" spans="2:13">
+    <row r="158" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B158" s="11"/>
       <c r="C158" s="11"/>
       <c r="D158" s="11"/>
@@ -4735,7 +4260,7 @@
       <c r="L158" s="11"/>
       <c r="M158" s="11"/>
     </row>
-    <row r="159" spans="2:13">
+    <row r="159" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B159" s="11"/>
       <c r="C159" s="11"/>
       <c r="D159" s="11"/>
@@ -4749,7 +4274,7 @@
       <c r="L159" s="11"/>
       <c r="M159" s="11"/>
     </row>
-    <row r="160" spans="2:13">
+    <row r="160" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B160" s="11"/>
       <c r="C160" s="11"/>
       <c r="D160" s="11"/>
@@ -4763,7 +4288,7 @@
       <c r="L160" s="11"/>
       <c r="M160" s="11"/>
     </row>
-    <row r="161" spans="2:13">
+    <row r="161" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B161" s="11"/>
       <c r="C161" s="11"/>
       <c r="D161" s="11"/>
@@ -4777,7 +4302,7 @@
       <c r="L161" s="11"/>
       <c r="M161" s="11"/>
     </row>
-    <row r="162" spans="2:13">
+    <row r="162" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B162" s="11"/>
       <c r="C162" s="11"/>
       <c r="D162" s="11"/>
@@ -4791,7 +4316,7 @@
       <c r="L162" s="11"/>
       <c r="M162" s="11"/>
     </row>
-    <row r="163" spans="2:13">
+    <row r="163" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B163" s="11"/>
       <c r="C163" s="11"/>
       <c r="D163" s="11"/>
@@ -4805,7 +4330,7 @@
       <c r="L163" s="11"/>
       <c r="M163" s="11"/>
     </row>
-    <row r="164" spans="2:13">
+    <row r="164" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B164" s="11"/>
       <c r="C164" s="11"/>
       <c r="D164" s="11"/>
@@ -4819,7 +4344,7 @@
       <c r="L164" s="11"/>
       <c r="M164" s="11"/>
     </row>
-    <row r="165" spans="2:13">
+    <row r="165" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B165" s="11"/>
       <c r="C165" s="11"/>
       <c r="D165" s="11"/>
@@ -4833,7 +4358,7 @@
       <c r="L165" s="11"/>
       <c r="M165" s="11"/>
     </row>
-    <row r="166" spans="2:13">
+    <row r="166" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B166" s="11"/>
       <c r="C166" s="11"/>
       <c r="D166" s="11"/>
@@ -4847,7 +4372,7 @@
       <c r="L166" s="11"/>
       <c r="M166" s="11"/>
     </row>
-    <row r="167" spans="2:13">
+    <row r="167" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B167" s="11"/>
       <c r="C167" s="11"/>
       <c r="D167" s="11"/>
@@ -4861,7 +4386,7 @@
       <c r="L167" s="11"/>
       <c r="M167" s="11"/>
     </row>
-    <row r="168" spans="2:13">
+    <row r="168" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B168" s="11"/>
       <c r="C168" s="11"/>
       <c r="D168" s="11"/>
@@ -4875,7 +4400,7 @@
       <c r="L168" s="11"/>
       <c r="M168" s="11"/>
     </row>
-    <row r="169" spans="2:13">
+    <row r="169" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B169" s="11"/>
       <c r="C169" s="11"/>
       <c r="D169" s="11"/>
@@ -4889,7 +4414,7 @@
       <c r="L169" s="11"/>
       <c r="M169" s="11"/>
     </row>
-    <row r="170" spans="2:13">
+    <row r="170" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B170" s="11"/>
       <c r="C170" s="11"/>
       <c r="D170" s="11"/>
@@ -4903,7 +4428,7 @@
       <c r="L170" s="11"/>
       <c r="M170" s="11"/>
     </row>
-    <row r="171" spans="2:13">
+    <row r="171" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B171" s="11"/>
       <c r="C171" s="11"/>
       <c r="D171" s="11"/>
@@ -4917,7 +4442,7 @@
       <c r="L171" s="11"/>
       <c r="M171" s="11"/>
     </row>
-    <row r="172" spans="2:13">
+    <row r="172" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B172" s="11"/>
       <c r="C172" s="11"/>
       <c r="D172" s="11"/>
@@ -4931,7 +4456,7 @@
       <c r="L172" s="11"/>
       <c r="M172" s="11"/>
     </row>
-    <row r="173" spans="2:13">
+    <row r="173" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B173" s="11"/>
       <c r="C173" s="11"/>
       <c r="D173" s="11"/>
@@ -4945,7 +4470,7 @@
       <c r="L173" s="11"/>
       <c r="M173" s="11"/>
     </row>
-    <row r="174" spans="2:13">
+    <row r="174" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B174" s="11"/>
       <c r="C174" s="11"/>
       <c r="D174" s="11"/>
@@ -4959,7 +4484,7 @@
       <c r="L174" s="11"/>
       <c r="M174" s="11"/>
     </row>
-    <row r="175" spans="2:13">
+    <row r="175" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B175" s="11"/>
       <c r="C175" s="11"/>
       <c r="D175" s="11"/>
@@ -4973,7 +4498,7 @@
       <c r="L175" s="11"/>
       <c r="M175" s="11"/>
     </row>
-    <row r="176" spans="2:13">
+    <row r="176" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B176" s="11"/>
       <c r="C176" s="11"/>
       <c r="D176" s="11"/>
@@ -4987,7 +4512,7 @@
       <c r="L176" s="11"/>
       <c r="M176" s="11"/>
     </row>
-    <row r="177" spans="2:13">
+    <row r="177" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B177" s="11"/>
       <c r="C177" s="11"/>
       <c r="D177" s="11"/>
@@ -5001,7 +4526,7 @@
       <c r="L177" s="11"/>
       <c r="M177" s="11"/>
     </row>
-    <row r="178" spans="2:13">
+    <row r="178" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B178" s="11"/>
       <c r="C178" s="11"/>
       <c r="D178" s="11"/>
@@ -5015,7 +4540,7 @@
       <c r="L178" s="11"/>
       <c r="M178" s="11"/>
     </row>
-    <row r="179" spans="2:13">
+    <row r="179" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B179" s="11"/>
       <c r="C179" s="11"/>
       <c r="D179" s="11"/>
@@ -5029,7 +4554,7 @@
       <c r="L179" s="11"/>
       <c r="M179" s="11"/>
     </row>
-    <row r="180" spans="2:13">
+    <row r="180" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B180" s="11"/>
       <c r="C180" s="11"/>
       <c r="D180" s="11"/>
@@ -5043,7 +4568,7 @@
       <c r="L180" s="11"/>
       <c r="M180" s="11"/>
     </row>
-    <row r="181" spans="2:13">
+    <row r="181" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B181" s="11"/>
       <c r="C181" s="11"/>
       <c r="D181" s="11"/>
@@ -5057,7 +4582,7 @@
       <c r="L181" s="11"/>
       <c r="M181" s="11"/>
     </row>
-    <row r="182" spans="2:13">
+    <row r="182" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B182" s="11"/>
       <c r="C182" s="11"/>
       <c r="D182" s="11"/>
@@ -5071,7 +4596,7 @@
       <c r="L182" s="11"/>
       <c r="M182" s="11"/>
     </row>
-    <row r="183" spans="2:13">
+    <row r="183" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B183" s="11"/>
       <c r="C183" s="11"/>
       <c r="D183" s="11"/>
@@ -5085,7 +4610,7 @@
       <c r="L183" s="11"/>
       <c r="M183" s="11"/>
     </row>
-    <row r="184" spans="2:13">
+    <row r="184" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B184" s="11"/>
       <c r="C184" s="11"/>
       <c r="D184" s="11"/>
@@ -5099,7 +4624,7 @@
       <c r="L184" s="11"/>
       <c r="M184" s="11"/>
     </row>
-    <row r="185" spans="2:13">
+    <row r="185" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B185" s="11"/>
       <c r="C185" s="11"/>
       <c r="D185" s="11"/>
@@ -5113,7 +4638,7 @@
       <c r="L185" s="11"/>
       <c r="M185" s="11"/>
     </row>
-    <row r="186" spans="2:13">
+    <row r="186" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B186" s="11"/>
       <c r="C186" s="11"/>
       <c r="D186" s="11"/>
@@ -5127,7 +4652,7 @@
       <c r="L186" s="11"/>
       <c r="M186" s="11"/>
     </row>
-    <row r="187" spans="2:13">
+    <row r="187" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B187" s="11"/>
       <c r="C187" s="11"/>
       <c r="D187" s="11"/>
@@ -5141,7 +4666,7 @@
       <c r="L187" s="11"/>
       <c r="M187" s="11"/>
     </row>
-    <row r="188" spans="2:13">
+    <row r="188" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B188" s="11"/>
       <c r="C188" s="11"/>
       <c r="D188" s="11"/>
@@ -5155,7 +4680,7 @@
       <c r="L188" s="11"/>
       <c r="M188" s="11"/>
     </row>
-    <row r="189" spans="2:13">
+    <row r="189" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B189" s="11"/>
       <c r="C189" s="11"/>
       <c r="D189" s="11"/>
@@ -5169,7 +4694,7 @@
       <c r="L189" s="11"/>
       <c r="M189" s="11"/>
     </row>
-    <row r="190" spans="2:13">
+    <row r="190" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B190" s="11"/>
       <c r="C190" s="11"/>
       <c r="D190" s="11"/>
@@ -5183,7 +4708,7 @@
       <c r="L190" s="11"/>
       <c r="M190" s="11"/>
     </row>
-    <row r="191" spans="2:13">
+    <row r="191" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B191" s="11"/>
       <c r="C191" s="11"/>
       <c r="D191" s="11"/>
@@ -5197,7 +4722,7 @@
       <c r="L191" s="11"/>
       <c r="M191" s="11"/>
     </row>
-    <row r="192" spans="2:13">
+    <row r="192" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B192" s="11"/>
       <c r="C192" s="11"/>
       <c r="D192" s="11"/>
@@ -5211,7 +4736,7 @@
       <c r="L192" s="11"/>
       <c r="M192" s="11"/>
     </row>
-    <row r="193" spans="2:13">
+    <row r="193" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B193" s="11"/>
       <c r="C193" s="11"/>
       <c r="D193" s="11"/>
@@ -5225,7 +4750,7 @@
       <c r="L193" s="11"/>
       <c r="M193" s="11"/>
     </row>
-    <row r="194" spans="2:13">
+    <row r="194" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B194" s="11"/>
       <c r="C194" s="11"/>
       <c r="D194" s="11"/>
@@ -5239,7 +4764,7 @@
       <c r="L194" s="11"/>
       <c r="M194" s="11"/>
     </row>
-    <row r="195" spans="2:13">
+    <row r="195" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B195" s="11"/>
       <c r="C195" s="11"/>
       <c r="D195" s="11"/>
@@ -5253,7 +4778,7 @@
       <c r="L195" s="11"/>
       <c r="M195" s="11"/>
     </row>
-    <row r="196" spans="2:13">
+    <row r="196" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B196" s="11"/>
       <c r="C196" s="11"/>
       <c r="D196" s="11"/>
@@ -5267,7 +4792,7 @@
       <c r="L196" s="11"/>
       <c r="M196" s="11"/>
     </row>
-    <row r="197" spans="2:13">
+    <row r="197" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B197" s="11"/>
       <c r="C197" s="11"/>
       <c r="D197" s="11"/>
@@ -5281,7 +4806,7 @@
       <c r="L197" s="11"/>
       <c r="M197" s="11"/>
     </row>
-    <row r="198" spans="2:13">
+    <row r="198" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B198" s="11"/>
       <c r="C198" s="11"/>
       <c r="D198" s="11"/>
@@ -5295,7 +4820,7 @@
       <c r="L198" s="11"/>
       <c r="M198" s="11"/>
     </row>
-    <row r="199" spans="2:13">
+    <row r="199" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B199" s="11"/>
       <c r="C199" s="11"/>
       <c r="D199" s="11"/>
@@ -5309,7 +4834,7 @@
       <c r="L199" s="11"/>
       <c r="M199" s="11"/>
     </row>
-    <row r="200" spans="2:13">
+    <row r="200" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B200" s="11"/>
       <c r="C200" s="11"/>
       <c r="D200" s="11"/>
@@ -5323,7 +4848,7 @@
       <c r="L200" s="11"/>
       <c r="M200" s="11"/>
     </row>
-    <row r="201" spans="2:13">
+    <row r="201" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B201" s="11"/>
       <c r="C201" s="11"/>
       <c r="D201" s="11"/>
@@ -5337,7 +4862,7 @@
       <c r="L201" s="11"/>
       <c r="M201" s="11"/>
     </row>
-    <row r="202" spans="2:13">
+    <row r="202" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B202" s="11"/>
       <c r="C202" s="11"/>
       <c r="D202" s="11"/>
@@ -5351,7 +4876,7 @@
       <c r="L202" s="11"/>
       <c r="M202" s="11"/>
     </row>
-    <row r="203" spans="2:13">
+    <row r="203" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B203" s="11"/>
       <c r="C203" s="11"/>
       <c r="D203" s="11"/>
@@ -5365,7 +4890,7 @@
       <c r="L203" s="11"/>
       <c r="M203" s="11"/>
     </row>
-    <row r="204" spans="2:13">
+    <row r="204" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B204" s="11"/>
       <c r="C204" s="11"/>
       <c r="D204" s="11"/>
@@ -5379,7 +4904,7 @@
       <c r="L204" s="11"/>
       <c r="M204" s="11"/>
     </row>
-    <row r="205" spans="2:13">
+    <row r="205" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B205" s="11"/>
       <c r="C205" s="11"/>
       <c r="D205" s="11"/>
@@ -5393,7 +4918,7 @@
       <c r="L205" s="11"/>
       <c r="M205" s="11"/>
     </row>
-    <row r="206" spans="2:13">
+    <row r="206" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B206" s="11"/>
       <c r="C206" s="11"/>
       <c r="D206" s="11"/>
@@ -5407,7 +4932,7 @@
       <c r="L206" s="11"/>
       <c r="M206" s="11"/>
     </row>
-    <row r="207" spans="2:13">
+    <row r="207" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B207" s="11"/>
       <c r="C207" s="11"/>
       <c r="D207" s="11"/>
@@ -5421,7 +4946,7 @@
       <c r="L207" s="11"/>
       <c r="M207" s="11"/>
     </row>
-    <row r="208" spans="2:13">
+    <row r="208" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B208" s="11"/>
       <c r="C208" s="11"/>
       <c r="D208" s="11"/>
@@ -5435,7 +4960,7 @@
       <c r="L208" s="11"/>
       <c r="M208" s="11"/>
     </row>
-    <row r="209" spans="2:13">
+    <row r="209" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B209" s="11"/>
       <c r="C209" s="11"/>
       <c r="D209" s="11"/>
@@ -5449,7 +4974,7 @@
       <c r="L209" s="11"/>
       <c r="M209" s="11"/>
     </row>
-    <row r="210" spans="2:13">
+    <row r="210" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B210" s="11"/>
       <c r="C210" s="11"/>
       <c r="D210" s="11"/>
@@ -5463,7 +4988,7 @@
       <c r="L210" s="11"/>
       <c r="M210" s="11"/>
     </row>
-    <row r="211" spans="2:13">
+    <row r="211" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B211" s="11"/>
       <c r="C211" s="11"/>
       <c r="D211" s="11"/>
@@ -5477,7 +5002,7 @@
       <c r="L211" s="11"/>
       <c r="M211" s="11"/>
     </row>
-    <row r="212" spans="2:13">
+    <row r="212" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B212" s="11"/>
       <c r="C212" s="11"/>
       <c r="D212" s="11"/>
@@ -5491,7 +5016,7 @@
       <c r="L212" s="11"/>
       <c r="M212" s="11"/>
     </row>
-    <row r="213" spans="2:13">
+    <row r="213" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B213" s="11"/>
       <c r="C213" s="11"/>
       <c r="D213" s="11"/>
@@ -5505,7 +5030,7 @@
       <c r="L213" s="11"/>
       <c r="M213" s="11"/>
     </row>
-    <row r="214" spans="2:13">
+    <row r="214" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B214" s="11"/>
       <c r="C214" s="11"/>
       <c r="D214" s="11"/>
@@ -5519,7 +5044,7 @@
       <c r="L214" s="11"/>
       <c r="M214" s="11"/>
     </row>
-    <row r="215" spans="2:13">
+    <row r="215" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B215" s="11"/>
       <c r="C215" s="11"/>
       <c r="D215" s="11"/>
@@ -5533,7 +5058,7 @@
       <c r="L215" s="11"/>
       <c r="M215" s="11"/>
     </row>
-    <row r="216" spans="2:13">
+    <row r="216" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B216" s="11"/>
       <c r="C216" s="11"/>
       <c r="D216" s="11"/>
@@ -5547,7 +5072,7 @@
       <c r="L216" s="11"/>
       <c r="M216" s="11"/>
     </row>
-    <row r="217" spans="2:13">
+    <row r="217" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B217" s="11"/>
       <c r="C217" s="11"/>
       <c r="D217" s="11"/>
@@ -5561,7 +5086,7 @@
       <c r="L217" s="11"/>
       <c r="M217" s="11"/>
     </row>
-    <row r="218" spans="2:13">
+    <row r="218" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B218" s="11"/>
       <c r="C218" s="11"/>
       <c r="D218" s="11"/>
@@ -5575,7 +5100,7 @@
       <c r="L218" s="11"/>
       <c r="M218" s="11"/>
     </row>
-    <row r="219" spans="2:13">
+    <row r="219" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B219" s="11"/>
       <c r="C219" s="11"/>
       <c r="D219" s="11"/>
@@ -5589,7 +5114,7 @@
       <c r="L219" s="11"/>
       <c r="M219" s="11"/>
     </row>
-    <row r="220" spans="2:13">
+    <row r="220" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B220" s="11"/>
       <c r="C220" s="11"/>
       <c r="D220" s="11"/>
@@ -5603,7 +5128,7 @@
       <c r="L220" s="11"/>
       <c r="M220" s="11"/>
     </row>
-    <row r="221" spans="2:13">
+    <row r="221" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B221" s="11"/>
       <c r="C221" s="11"/>
       <c r="D221" s="11"/>
@@ -5617,7 +5142,7 @@
       <c r="L221" s="11"/>
       <c r="M221" s="11"/>
     </row>
-    <row r="222" spans="2:13">
+    <row r="222" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B222" s="11"/>
       <c r="C222" s="11"/>
       <c r="D222" s="11"/>
@@ -5631,7 +5156,7 @@
       <c r="L222" s="11"/>
       <c r="M222" s="11"/>
     </row>
-    <row r="223" spans="2:13">
+    <row r="223" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B223" s="11"/>
       <c r="C223" s="11"/>
       <c r="D223" s="11"/>
@@ -5645,7 +5170,7 @@
       <c r="L223" s="11"/>
       <c r="M223" s="11"/>
     </row>
-    <row r="224" spans="2:13">
+    <row r="224" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B224" s="11"/>
       <c r="C224" s="11"/>
       <c r="D224" s="11"/>
@@ -5659,7 +5184,7 @@
       <c r="L224" s="11"/>
       <c r="M224" s="11"/>
     </row>
-    <row r="225" spans="2:13">
+    <row r="225" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B225" s="11"/>
       <c r="C225" s="11"/>
       <c r="D225" s="11"/>
@@ -5673,7 +5198,7 @@
       <c r="L225" s="11"/>
       <c r="M225" s="11"/>
     </row>
-    <row r="226" spans="2:13">
+    <row r="226" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B226" s="11"/>
       <c r="C226" s="11"/>
       <c r="D226" s="11"/>
@@ -5687,7 +5212,7 @@
       <c r="L226" s="11"/>
       <c r="M226" s="11"/>
     </row>
-    <row r="227" spans="2:13">
+    <row r="227" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B227" s="11"/>
       <c r="C227" s="11"/>
       <c r="D227" s="11"/>
@@ -5701,7 +5226,7 @@
       <c r="L227" s="11"/>
       <c r="M227" s="11"/>
     </row>
-    <row r="228" spans="2:13">
+    <row r="228" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B228" s="11"/>
       <c r="C228" s="11"/>
       <c r="D228" s="11"/>
@@ -5715,7 +5240,7 @@
       <c r="L228" s="11"/>
       <c r="M228" s="11"/>
     </row>
-    <row r="229" spans="2:13">
+    <row r="229" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B229" s="11"/>
       <c r="C229" s="11"/>
       <c r="D229" s="11"/>
@@ -5729,7 +5254,7 @@
       <c r="L229" s="11"/>
       <c r="M229" s="11"/>
     </row>
-    <row r="230" spans="2:13">
+    <row r="230" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B230" s="11"/>
       <c r="C230" s="11"/>
       <c r="D230" s="11"/>
@@ -5743,7 +5268,7 @@
       <c r="L230" s="11"/>
       <c r="M230" s="11"/>
     </row>
-    <row r="231" spans="2:13">
+    <row r="231" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B231" s="11"/>
       <c r="C231" s="11"/>
       <c r="D231" s="11"/>
@@ -5757,7 +5282,7 @@
       <c r="L231" s="11"/>
       <c r="M231" s="11"/>
     </row>
-    <row r="232" spans="2:13">
+    <row r="232" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B232" s="11"/>
       <c r="C232" s="11"/>
       <c r="D232" s="11"/>
@@ -5771,7 +5296,7 @@
       <c r="L232" s="11"/>
       <c r="M232" s="11"/>
     </row>
-    <row r="233" spans="2:13">
+    <row r="233" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B233" s="11"/>
       <c r="C233" s="11"/>
       <c r="D233" s="11"/>
@@ -5785,7 +5310,7 @@
       <c r="L233" s="11"/>
       <c r="M233" s="11"/>
     </row>
-    <row r="234" spans="2:13">
+    <row r="234" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B234" s="11"/>
       <c r="C234" s="11"/>
       <c r="D234" s="11"/>
@@ -5799,7 +5324,7 @@
       <c r="L234" s="11"/>
       <c r="M234" s="11"/>
     </row>
-    <row r="235" spans="2:13">
+    <row r="235" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B235" s="11"/>
       <c r="C235" s="11"/>
       <c r="D235" s="11"/>
@@ -5813,7 +5338,7 @@
       <c r="L235" s="11"/>
       <c r="M235" s="11"/>
     </row>
-    <row r="236" spans="2:13">
+    <row r="236" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B236" s="11"/>
       <c r="C236" s="11"/>
       <c r="D236" s="11"/>
@@ -5827,7 +5352,7 @@
       <c r="L236" s="11"/>
       <c r="M236" s="11"/>
     </row>
-    <row r="237" spans="2:13">
+    <row r="237" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B237" s="11"/>
       <c r="C237" s="11"/>
       <c r="D237" s="11"/>
@@ -5841,7 +5366,7 @@
       <c r="L237" s="11"/>
       <c r="M237" s="11"/>
     </row>
-    <row r="238" spans="2:13">
+    <row r="238" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B238" s="11"/>
       <c r="C238" s="11"/>
       <c r="D238" s="11"/>
@@ -5855,7 +5380,7 @@
       <c r="L238" s="11"/>
       <c r="M238" s="11"/>
     </row>
-    <row r="239" spans="2:13">
+    <row r="239" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B239" s="11"/>
       <c r="C239" s="11"/>
       <c r="D239" s="11"/>
@@ -5869,7 +5394,7 @@
       <c r="L239" s="11"/>
       <c r="M239" s="11"/>
     </row>
-    <row r="240" spans="2:13">
+    <row r="240" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B240" s="11"/>
       <c r="C240" s="11"/>
       <c r="D240" s="11"/>
@@ -5883,7 +5408,7 @@
       <c r="L240" s="11"/>
       <c r="M240" s="11"/>
     </row>
-    <row r="241" spans="2:13">
+    <row r="241" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B241" s="11"/>
       <c r="C241" s="11"/>
       <c r="D241" s="11"/>
@@ -5897,7 +5422,7 @@
       <c r="L241" s="11"/>
       <c r="M241" s="11"/>
     </row>
-    <row r="242" spans="2:13">
+    <row r="242" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B242" s="11"/>
       <c r="C242" s="11"/>
       <c r="D242" s="11"/>
@@ -5911,7 +5436,7 @@
       <c r="L242" s="11"/>
       <c r="M242" s="11"/>
     </row>
-    <row r="243" spans="2:13">
+    <row r="243" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B243" s="11"/>
       <c r="C243" s="11"/>
       <c r="D243" s="11"/>
@@ -5925,7 +5450,7 @@
       <c r="L243" s="11"/>
       <c r="M243" s="11"/>
     </row>
-    <row r="244" spans="2:13">
+    <row r="244" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B244" s="11"/>
       <c r="C244" s="11"/>
       <c r="D244" s="11"/>
@@ -5939,7 +5464,7 @@
       <c r="L244" s="11"/>
       <c r="M244" s="11"/>
     </row>
-    <row r="245" spans="2:13">
+    <row r="245" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B245" s="11"/>
       <c r="C245" s="11"/>
       <c r="D245" s="11"/>
@@ -5953,7 +5478,7 @@
       <c r="L245" s="11"/>
       <c r="M245" s="11"/>
     </row>
-    <row r="246" spans="2:13">
+    <row r="246" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B246" s="11"/>
       <c r="C246" s="11"/>
       <c r="D246" s="11"/>
@@ -5967,7 +5492,7 @@
       <c r="L246" s="11"/>
       <c r="M246" s="11"/>
     </row>
-    <row r="247" spans="2:13">
+    <row r="247" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B247" s="11"/>
       <c r="C247" s="11"/>
       <c r="D247" s="11"/>
@@ -5981,7 +5506,7 @@
       <c r="L247" s="11"/>
       <c r="M247" s="11"/>
     </row>
-    <row r="248" spans="2:13">
+    <row r="248" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B248" s="11"/>
       <c r="C248" s="11"/>
       <c r="D248" s="11"/>
@@ -5995,7 +5520,7 @@
       <c r="L248" s="11"/>
       <c r="M248" s="11"/>
     </row>
-    <row r="249" spans="2:13">
+    <row r="249" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B249" s="11"/>
       <c r="C249" s="11"/>
       <c r="D249" s="11"/>
@@ -6009,7 +5534,7 @@
       <c r="L249" s="11"/>
       <c r="M249" s="11"/>
     </row>
-    <row r="250" spans="2:13">
+    <row r="250" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B250" s="11"/>
       <c r="C250" s="11"/>
       <c r="D250" s="11"/>
@@ -6023,7 +5548,7 @@
       <c r="L250" s="11"/>
       <c r="M250" s="11"/>
     </row>
-    <row r="251" spans="2:13">
+    <row r="251" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B251" s="11"/>
       <c r="C251" s="11"/>
       <c r="D251" s="11"/>
@@ -6037,7 +5562,7 @@
       <c r="L251" s="11"/>
       <c r="M251" s="11"/>
     </row>
-    <row r="252" spans="2:13">
+    <row r="252" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B252" s="11"/>
       <c r="C252" s="11"/>
       <c r="D252" s="11"/>
@@ -6051,7 +5576,7 @@
       <c r="L252" s="11"/>
       <c r="M252" s="11"/>
     </row>
-    <row r="253" spans="2:13">
+    <row r="253" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B253" s="11"/>
       <c r="C253" s="11"/>
       <c r="D253" s="11"/>
@@ -6065,7 +5590,7 @@
       <c r="L253" s="11"/>
       <c r="M253" s="11"/>
     </row>
-    <row r="254" spans="2:13">
+    <row r="254" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B254" s="11"/>
       <c r="C254" s="11"/>
       <c r="D254" s="11"/>
@@ -6079,7 +5604,7 @@
       <c r="L254" s="11"/>
       <c r="M254" s="11"/>
     </row>
-    <row r="255" spans="2:13">
+    <row r="255" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B255" s="11"/>
       <c r="C255" s="11"/>
       <c r="D255" s="11"/>
@@ -6093,7 +5618,7 @@
       <c r="L255" s="11"/>
       <c r="M255" s="11"/>
     </row>
-    <row r="256" spans="2:13">
+    <row r="256" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B256" s="11"/>
       <c r="C256" s="11"/>
       <c r="D256" s="11"/>
@@ -6107,7 +5632,7 @@
       <c r="L256" s="11"/>
       <c r="M256" s="11"/>
     </row>
-    <row r="257" spans="2:13">
+    <row r="257" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B257" s="11"/>
       <c r="C257" s="11"/>
       <c r="D257" s="11"/>
@@ -6121,7 +5646,7 @@
       <c r="L257" s="11"/>
       <c r="M257" s="11"/>
     </row>
-    <row r="258" spans="2:13">
+    <row r="258" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B258" s="11"/>
       <c r="C258" s="11"/>
       <c r="D258" s="11"/>
@@ -6135,7 +5660,7 @@
       <c r="L258" s="11"/>
       <c r="M258" s="11"/>
     </row>
-    <row r="259" spans="2:13">
+    <row r="259" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B259" s="11"/>
       <c r="C259" s="11"/>
       <c r="D259" s="11"/>
@@ -6149,7 +5674,7 @@
       <c r="L259" s="11"/>
       <c r="M259" s="11"/>
     </row>
-    <row r="260" spans="2:13">
+    <row r="260" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B260" s="11"/>
       <c r="C260" s="11"/>
       <c r="D260" s="11"/>
@@ -6163,7 +5688,7 @@
       <c r="L260" s="11"/>
       <c r="M260" s="11"/>
     </row>
-    <row r="261" spans="2:13">
+    <row r="261" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B261" s="11"/>
       <c r="C261" s="11"/>
       <c r="D261" s="11"/>
@@ -6177,7 +5702,7 @@
       <c r="L261" s="11"/>
       <c r="M261" s="11"/>
     </row>
-    <row r="262" spans="2:13">
+    <row r="262" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B262" s="11"/>
       <c r="C262" s="11"/>
       <c r="D262" s="11"/>
@@ -6191,7 +5716,7 @@
       <c r="L262" s="11"/>
       <c r="M262" s="11"/>
     </row>
-    <row r="263" spans="2:13">
+    <row r="263" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B263" s="11"/>
       <c r="C263" s="11"/>
       <c r="D263" s="11"/>
@@ -6205,7 +5730,7 @@
       <c r="L263" s="11"/>
       <c r="M263" s="11"/>
     </row>
-    <row r="264" spans="2:13">
+    <row r="264" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B264" s="11"/>
       <c r="C264" s="11"/>
       <c r="D264" s="11"/>
@@ -6219,7 +5744,7 @@
       <c r="L264" s="11"/>
       <c r="M264" s="11"/>
     </row>
-    <row r="265" spans="2:13">
+    <row r="265" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B265" s="11"/>
       <c r="C265" s="11"/>
       <c r="D265" s="11"/>
@@ -6233,7 +5758,7 @@
       <c r="L265" s="11"/>
       <c r="M265" s="11"/>
     </row>
-    <row r="266" spans="2:13">
+    <row r="266" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B266" s="11"/>
       <c r="C266" s="11"/>
       <c r="D266" s="11"/>
@@ -6247,7 +5772,7 @@
       <c r="L266" s="11"/>
       <c r="M266" s="11"/>
     </row>
-    <row r="267" spans="2:13">
+    <row r="267" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B267" s="11"/>
       <c r="C267" s="11"/>
       <c r="D267" s="11"/>
@@ -6261,7 +5786,7 @@
       <c r="L267" s="11"/>
       <c r="M267" s="11"/>
     </row>
-    <row r="268" spans="2:13">
+    <row r="268" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B268" s="11"/>
       <c r="C268" s="11"/>
       <c r="D268" s="11"/>
@@ -6275,7 +5800,7 @@
       <c r="L268" s="11"/>
       <c r="M268" s="11"/>
     </row>
-    <row r="269" spans="2:13">
+    <row r="269" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B269" s="11"/>
       <c r="C269" s="11"/>
       <c r="D269" s="11"/>
@@ -6289,7 +5814,7 @@
       <c r="L269" s="11"/>
       <c r="M269" s="11"/>
     </row>
-    <row r="270" spans="2:13">
+    <row r="270" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B270" s="11"/>
       <c r="C270" s="11"/>
       <c r="D270" s="11"/>
@@ -6303,7 +5828,7 @@
       <c r="L270" s="11"/>
       <c r="M270" s="11"/>
     </row>
-    <row r="271" spans="2:13">
+    <row r="271" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B271" s="11"/>
       <c r="C271" s="11"/>
       <c r="D271" s="11"/>
@@ -6317,7 +5842,7 @@
       <c r="L271" s="11"/>
       <c r="M271" s="11"/>
     </row>
-    <row r="272" spans="2:13">
+    <row r="272" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B272" s="11"/>
       <c r="C272" s="11"/>
       <c r="D272" s="11"/>
@@ -6331,7 +5856,7 @@
       <c r="L272" s="11"/>
       <c r="M272" s="11"/>
     </row>
-    <row r="273" spans="2:13">
+    <row r="273" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B273" s="11"/>
       <c r="C273" s="11"/>
       <c r="D273" s="11"/>
@@ -6345,7 +5870,7 @@
       <c r="L273" s="11"/>
       <c r="M273" s="11"/>
     </row>
-    <row r="274" spans="2:13">
+    <row r="274" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B274" s="11"/>
       <c r="C274" s="11"/>
       <c r="D274" s="11"/>
@@ -6359,7 +5884,7 @@
       <c r="L274" s="11"/>
       <c r="M274" s="11"/>
     </row>
-    <row r="275" spans="2:13">
+    <row r="275" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B275" s="11"/>
       <c r="C275" s="11"/>
       <c r="D275" s="11"/>
@@ -6373,7 +5898,7 @@
       <c r="L275" s="11"/>
       <c r="M275" s="11"/>
     </row>
-    <row r="276" spans="2:13">
+    <row r="276" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B276" s="11"/>
       <c r="C276" s="11"/>
       <c r="D276" s="11"/>
@@ -6387,7 +5912,7 @@
       <c r="L276" s="11"/>
       <c r="M276" s="11"/>
     </row>
-    <row r="277" spans="2:13">
+    <row r="277" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B277" s="11"/>
       <c r="C277" s="11"/>
       <c r="D277" s="11"/>
@@ -6401,7 +5926,7 @@
       <c r="L277" s="11"/>
       <c r="M277" s="11"/>
     </row>
-    <row r="278" spans="2:13">
+    <row r="278" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B278" s="11"/>
       <c r="C278" s="11"/>
       <c r="D278" s="11"/>
@@ -6415,7 +5940,7 @@
       <c r="L278" s="11"/>
       <c r="M278" s="11"/>
     </row>
-    <row r="279" spans="2:13">
+    <row r="279" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B279" s="11"/>
       <c r="C279" s="11"/>
       <c r="D279" s="11"/>
@@ -6429,7 +5954,7 @@
       <c r="L279" s="11"/>
       <c r="M279" s="11"/>
     </row>
-    <row r="280" spans="2:13">
+    <row r="280" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B280" s="11"/>
       <c r="C280" s="11"/>
       <c r="D280" s="11"/>
@@ -6443,7 +5968,7 @@
       <c r="L280" s="11"/>
       <c r="M280" s="11"/>
     </row>
-    <row r="281" spans="2:13">
+    <row r="281" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B281" s="11"/>
       <c r="C281" s="11"/>
       <c r="D281" s="11"/>
@@ -6457,7 +5982,7 @@
       <c r="L281" s="11"/>
       <c r="M281" s="11"/>
     </row>
-    <row r="282" spans="2:13">
+    <row r="282" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B282" s="11"/>
       <c r="C282" s="11"/>
       <c r="D282" s="11"/>
@@ -6471,7 +5996,7 @@
       <c r="L282" s="11"/>
       <c r="M282" s="11"/>
     </row>
-    <row r="283" spans="2:13">
+    <row r="283" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B283" s="11"/>
       <c r="C283" s="11"/>
       <c r="D283" s="11"/>
@@ -6485,7 +6010,7 @@
       <c r="L283" s="11"/>
       <c r="M283" s="11"/>
     </row>
-    <row r="284" spans="2:13">
+    <row r="284" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B284" s="11"/>
       <c r="C284" s="11"/>
       <c r="D284" s="11"/>
@@ -6499,7 +6024,7 @@
       <c r="L284" s="11"/>
       <c r="M284" s="11"/>
     </row>
-    <row r="285" spans="2:13">
+    <row r="285" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B285" s="11"/>
       <c r="C285" s="11"/>
       <c r="D285" s="11"/>
@@ -6513,7 +6038,7 @@
       <c r="L285" s="11"/>
       <c r="M285" s="11"/>
     </row>
-    <row r="286" spans="2:13">
+    <row r="286" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B286" s="11"/>
       <c r="C286" s="11"/>
       <c r="D286" s="11"/>
@@ -6527,7 +6052,7 @@
       <c r="L286" s="11"/>
       <c r="M286" s="11"/>
     </row>
-    <row r="287" spans="2:13">
+    <row r="287" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B287" s="11"/>
       <c r="C287" s="11"/>
       <c r="D287" s="11"/>
@@ -6541,7 +6066,7 @@
       <c r="L287" s="11"/>
       <c r="M287" s="11"/>
     </row>
-    <row r="288" spans="2:13">
+    <row r="288" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B288" s="11"/>
       <c r="C288" s="11"/>
       <c r="D288" s="11"/>
@@ -6555,7 +6080,7 @@
       <c r="L288" s="11"/>
       <c r="M288" s="11"/>
     </row>
-    <row r="289" spans="2:13">
+    <row r="289" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B289" s="11"/>
       <c r="C289" s="11"/>
       <c r="D289" s="11"/>
@@ -6569,7 +6094,7 @@
       <c r="L289" s="11"/>
       <c r="M289" s="11"/>
     </row>
-    <row r="290" spans="2:13">
+    <row r="290" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B290" s="11"/>
       <c r="C290" s="11"/>
       <c r="D290" s="11"/>
@@ -6583,7 +6108,7 @@
       <c r="L290" s="11"/>
       <c r="M290" s="11"/>
     </row>
-    <row r="291" spans="2:13">
+    <row r="291" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B291" s="11"/>
       <c r="C291" s="11"/>
       <c r="D291" s="11"/>
@@ -6597,7 +6122,7 @@
       <c r="L291" s="11"/>
       <c r="M291" s="11"/>
     </row>
-    <row r="292" spans="2:13">
+    <row r="292" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B292" s="11"/>
       <c r="C292" s="11"/>
       <c r="D292" s="11"/>
@@ -6611,7 +6136,7 @@
       <c r="L292" s="11"/>
       <c r="M292" s="11"/>
     </row>
-    <row r="293" spans="2:13">
+    <row r="293" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B293" s="11"/>
       <c r="C293" s="11"/>
       <c r="D293" s="11"/>
@@ -6625,7 +6150,7 @@
       <c r="L293" s="11"/>
       <c r="M293" s="11"/>
     </row>
-    <row r="294" spans="2:13">
+    <row r="294" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B294" s="11"/>
       <c r="C294" s="11"/>
       <c r="D294" s="11"/>
@@ -6639,7 +6164,7 @@
       <c r="L294" s="11"/>
       <c r="M294" s="11"/>
     </row>
-    <row r="295" spans="2:13">
+    <row r="295" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B295" s="11"/>
       <c r="C295" s="11"/>
       <c r="D295" s="11"/>
@@ -6653,7 +6178,7 @@
       <c r="L295" s="11"/>
       <c r="M295" s="11"/>
     </row>
-    <row r="296" spans="2:13">
+    <row r="296" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B296" s="11"/>
       <c r="C296" s="11"/>
       <c r="D296" s="11"/>
@@ -6667,7 +6192,7 @@
       <c r="L296" s="11"/>
       <c r="M296" s="11"/>
     </row>
-    <row r="297" spans="2:13">
+    <row r="297" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B297" s="11"/>
       <c r="C297" s="11"/>
       <c r="D297" s="11"/>
@@ -6681,7 +6206,7 @@
       <c r="L297" s="11"/>
       <c r="M297" s="11"/>
     </row>
-    <row r="298" spans="2:13">
+    <row r="298" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B298" s="11"/>
       <c r="C298" s="11"/>
       <c r="D298" s="11"/>
@@ -6695,7 +6220,7 @@
       <c r="L298" s="11"/>
       <c r="M298" s="11"/>
     </row>
-    <row r="299" spans="2:13">
+    <row r="299" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B299" s="11"/>
       <c r="C299" s="11"/>
       <c r="D299" s="11"/>
@@ -6709,7 +6234,7 @@
       <c r="L299" s="11"/>
       <c r="M299" s="11"/>
     </row>
-    <row r="300" spans="2:13">
+    <row r="300" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B300" s="11"/>
       <c r="C300" s="11"/>
       <c r="D300" s="11"/>
@@ -6723,7 +6248,7 @@
       <c r="L300" s="11"/>
       <c r="M300" s="11"/>
     </row>
-    <row r="301" spans="2:13">
+    <row r="301" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B301" s="11"/>
       <c r="C301" s="11"/>
       <c r="D301" s="11"/>
@@ -6737,7 +6262,7 @@
       <c r="L301" s="11"/>
       <c r="M301" s="11"/>
     </row>
-    <row r="302" spans="2:13">
+    <row r="302" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B302" s="11"/>
       <c r="C302" s="11"/>
       <c r="D302" s="11"/>
@@ -6751,7 +6276,7 @@
       <c r="L302" s="11"/>
       <c r="M302" s="11"/>
     </row>
-    <row r="303" spans="2:13">
+    <row r="303" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B303" s="11"/>
       <c r="C303" s="11"/>
       <c r="D303" s="11"/>
@@ -6765,7 +6290,7 @@
       <c r="L303" s="11"/>
       <c r="M303" s="11"/>
     </row>
-    <row r="304" spans="2:13">
+    <row r="304" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B304" s="11"/>
       <c r="C304" s="11"/>
       <c r="D304" s="11"/>
@@ -6779,7 +6304,7 @@
       <c r="L304" s="11"/>
       <c r="M304" s="11"/>
     </row>
-    <row r="305" spans="2:13">
+    <row r="305" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B305" s="11"/>
       <c r="C305" s="11"/>
       <c r="D305" s="11"/>
@@ -6793,7 +6318,7 @@
       <c r="L305" s="11"/>
       <c r="M305" s="11"/>
     </row>
-    <row r="306" spans="2:13">
+    <row r="306" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B306" s="11"/>
       <c r="C306" s="11"/>
       <c r="D306" s="11"/>
@@ -6807,7 +6332,7 @@
       <c r="L306" s="11"/>
       <c r="M306" s="11"/>
     </row>
-    <row r="307" spans="2:13">
+    <row r="307" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B307" s="11"/>
       <c r="C307" s="11"/>
       <c r="D307" s="11"/>
@@ -6821,7 +6346,7 @@
       <c r="L307" s="11"/>
       <c r="M307" s="11"/>
     </row>
-    <row r="308" spans="2:13">
+    <row r="308" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B308" s="11"/>
       <c r="C308" s="11"/>
       <c r="D308" s="11"/>
@@ -6835,7 +6360,7 @@
       <c r="L308" s="11"/>
       <c r="M308" s="11"/>
     </row>
-    <row r="309" spans="2:13">
+    <row r="309" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B309" s="11"/>
       <c r="C309" s="11"/>
       <c r="D309" s="11"/>
@@ -6849,7 +6374,7 @@
       <c r="L309" s="11"/>
       <c r="M309" s="11"/>
     </row>
-    <row r="310" spans="2:13">
+    <row r="310" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B310" s="11"/>
       <c r="C310" s="11"/>
       <c r="D310" s="11"/>
@@ -6863,7 +6388,7 @@
       <c r="L310" s="11"/>
       <c r="M310" s="11"/>
     </row>
-    <row r="311" spans="2:13">
+    <row r="311" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B311" s="11"/>
       <c r="C311" s="11"/>
       <c r="D311" s="11"/>
@@ -6877,7 +6402,7 @@
       <c r="L311" s="11"/>
       <c r="M311" s="11"/>
     </row>
-    <row r="312" spans="2:13">
+    <row r="312" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B312" s="11"/>
       <c r="C312" s="11"/>
       <c r="D312" s="11"/>
@@ -6891,7 +6416,7 @@
       <c r="L312" s="11"/>
       <c r="M312" s="11"/>
     </row>
-    <row r="313" spans="2:13">
+    <row r="313" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B313" s="11"/>
       <c r="C313" s="11"/>
       <c r="D313" s="11"/>
@@ -6905,7 +6430,7 @@
       <c r="L313" s="11"/>
       <c r="M313" s="11"/>
     </row>
-    <row r="314" spans="2:13">
+    <row r="314" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B314" s="11"/>
       <c r="C314" s="11"/>
       <c r="D314" s="11"/>
@@ -6919,7 +6444,7 @@
       <c r="L314" s="11"/>
       <c r="M314" s="11"/>
     </row>
-    <row r="315" spans="2:13">
+    <row r="315" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B315" s="11"/>
       <c r="C315" s="11"/>
       <c r="D315" s="11"/>
@@ -6933,7 +6458,7 @@
       <c r="L315" s="11"/>
       <c r="M315" s="11"/>
     </row>
-    <row r="316" spans="2:13">
+    <row r="316" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B316" s="11"/>
       <c r="C316" s="11"/>
       <c r="D316" s="11"/>
@@ -6947,7 +6472,7 @@
       <c r="L316" s="11"/>
       <c r="M316" s="11"/>
     </row>
-    <row r="317" spans="2:13">
+    <row r="317" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B317" s="11"/>
       <c r="C317" s="11"/>
       <c r="D317" s="11"/>
@@ -6961,7 +6486,7 @@
       <c r="L317" s="11"/>
       <c r="M317" s="11"/>
     </row>
-    <row r="318" spans="2:13">
+    <row r="318" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B318" s="11"/>
       <c r="C318" s="11"/>
       <c r="D318" s="11"/>
@@ -6975,7 +6500,7 @@
       <c r="L318" s="11"/>
       <c r="M318" s="11"/>
     </row>
-    <row r="319" spans="2:13">
+    <row r="319" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B319" s="11"/>
       <c r="C319" s="11"/>
       <c r="D319" s="11"/>
@@ -6989,7 +6514,7 @@
       <c r="L319" s="11"/>
       <c r="M319" s="11"/>
     </row>
-    <row r="320" spans="2:13">
+    <row r="320" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B320" s="11"/>
       <c r="C320" s="11"/>
       <c r="D320" s="11"/>
@@ -7003,7 +6528,7 @@
       <c r="L320" s="11"/>
       <c r="M320" s="11"/>
     </row>
-    <row r="321" spans="2:13">
+    <row r="321" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B321" s="11"/>
       <c r="C321" s="11"/>
       <c r="D321" s="11"/>
@@ -7017,7 +6542,7 @@
       <c r="L321" s="11"/>
       <c r="M321" s="11"/>
     </row>
-    <row r="322" spans="2:13">
+    <row r="322" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B322" s="11"/>
       <c r="C322" s="11"/>
       <c r="D322" s="11"/>
@@ -7031,7 +6556,7 @@
       <c r="L322" s="11"/>
       <c r="M322" s="11"/>
     </row>
-    <row r="323" spans="2:13">
+    <row r="323" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B323" s="11"/>
       <c r="C323" s="11"/>
       <c r="D323" s="11"/>
@@ -7045,7 +6570,7 @@
       <c r="L323" s="11"/>
       <c r="M323" s="11"/>
     </row>
-    <row r="324" spans="2:13">
+    <row r="324" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B324" s="11"/>
       <c r="C324" s="11"/>
       <c r="D324" s="11"/>
@@ -7059,7 +6584,7 @@
       <c r="L324" s="11"/>
       <c r="M324" s="11"/>
     </row>
-    <row r="325" spans="2:13">
+    <row r="325" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B325" s="11"/>
       <c r="C325" s="11"/>
       <c r="D325" s="11"/>
@@ -7073,7 +6598,7 @@
       <c r="L325" s="11"/>
       <c r="M325" s="11"/>
     </row>
-    <row r="326" spans="2:13">
+    <row r="326" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B326" s="11"/>
       <c r="C326" s="11"/>
       <c r="D326" s="11"/>
@@ -7087,7 +6612,7 @@
       <c r="L326" s="11"/>
       <c r="M326" s="11"/>
     </row>
-    <row r="327" spans="2:13">
+    <row r="327" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B327" s="11"/>
       <c r="C327" s="11"/>
       <c r="D327" s="11"/>
@@ -7101,7 +6626,7 @@
       <c r="L327" s="11"/>
       <c r="M327" s="11"/>
     </row>
-    <row r="328" spans="2:13">
+    <row r="328" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B328" s="11"/>
       <c r="C328" s="11"/>
       <c r="D328" s="11"/>
@@ -7115,7 +6640,7 @@
       <c r="L328" s="11"/>
       <c r="M328" s="11"/>
     </row>
-    <row r="329" spans="2:13">
+    <row r="329" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B329" s="11"/>
       <c r="C329" s="11"/>
       <c r="D329" s="11"/>
@@ -7129,7 +6654,7 @@
       <c r="L329" s="11"/>
       <c r="M329" s="11"/>
     </row>
-    <row r="330" spans="2:13">
+    <row r="330" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B330" s="11"/>
       <c r="C330" s="11"/>
       <c r="D330" s="11"/>
@@ -7143,7 +6668,7 @@
       <c r="L330" s="11"/>
       <c r="M330" s="11"/>
     </row>
-    <row r="331" spans="2:13">
+    <row r="331" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B331" s="11"/>
       <c r="C331" s="11"/>
       <c r="D331" s="11"/>
@@ -7157,7 +6682,7 @@
       <c r="L331" s="11"/>
       <c r="M331" s="11"/>
     </row>
-    <row r="332" spans="2:13">
+    <row r="332" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B332" s="11"/>
       <c r="C332" s="11"/>
       <c r="D332" s="11"/>
@@ -7171,7 +6696,7 @@
       <c r="L332" s="11"/>
       <c r="M332" s="11"/>
     </row>
-    <row r="333" spans="2:13">
+    <row r="333" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B333" s="11"/>
       <c r="C333" s="11"/>
       <c r="D333" s="11"/>
@@ -7185,7 +6710,7 @@
       <c r="L333" s="11"/>
       <c r="M333" s="11"/>
     </row>
-    <row r="334" spans="2:13">
+    <row r="334" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B334" s="11"/>
       <c r="C334" s="11"/>
       <c r="D334" s="11"/>
@@ -7199,7 +6724,7 @@
       <c r="L334" s="11"/>
       <c r="M334" s="11"/>
     </row>
-    <row r="335" spans="2:13">
+    <row r="335" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B335" s="11"/>
       <c r="C335" s="11"/>
       <c r="D335" s="11"/>
@@ -7213,7 +6738,7 @@
       <c r="L335" s="11"/>
       <c r="M335" s="11"/>
     </row>
-    <row r="336" spans="2:13">
+    <row r="336" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B336" s="11"/>
       <c r="C336" s="11"/>
       <c r="D336" s="11"/>
@@ -7227,7 +6752,7 @@
       <c r="L336" s="11"/>
       <c r="M336" s="11"/>
     </row>
-    <row r="337" spans="2:13">
+    <row r="337" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B337" s="11"/>
       <c r="C337" s="11"/>
       <c r="D337" s="11"/>
@@ -7241,7 +6766,7 @@
       <c r="L337" s="11"/>
       <c r="M337" s="11"/>
     </row>
-    <row r="338" spans="2:13">
+    <row r="338" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B338" s="11"/>
       <c r="C338" s="11"/>
       <c r="D338" s="11"/>
@@ -7255,7 +6780,7 @@
       <c r="L338" s="11"/>
       <c r="M338" s="11"/>
     </row>
-    <row r="339" spans="2:13">
+    <row r="339" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B339" s="11"/>
       <c r="C339" s="11"/>
       <c r="D339" s="11"/>
@@ -7269,7 +6794,7 @@
       <c r="L339" s="11"/>
       <c r="M339" s="11"/>
     </row>
-    <row r="340" spans="2:13">
+    <row r="340" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B340" s="11"/>
       <c r="C340" s="11"/>
       <c r="D340" s="11"/>
@@ -7283,7 +6808,7 @@
       <c r="L340" s="11"/>
       <c r="M340" s="11"/>
     </row>
-    <row r="341" spans="2:13">
+    <row r="341" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B341" s="11"/>
       <c r="C341" s="11"/>
       <c r="D341" s="11"/>
@@ -7297,7 +6822,7 @@
       <c r="L341" s="11"/>
       <c r="M341" s="11"/>
     </row>
-    <row r="342" spans="2:13">
+    <row r="342" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B342" s="11"/>
       <c r="C342" s="11"/>
       <c r="D342" s="11"/>
@@ -7311,7 +6836,7 @@
       <c r="L342" s="11"/>
       <c r="M342" s="11"/>
     </row>
-    <row r="343" spans="2:13">
+    <row r="343" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B343" s="11"/>
       <c r="C343" s="11"/>
       <c r="D343" s="11"/>
@@ -7325,7 +6850,7 @@
       <c r="L343" s="11"/>
       <c r="M343" s="11"/>
     </row>
-    <row r="344" spans="2:13">
+    <row r="344" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B344" s="11"/>
       <c r="C344" s="11"/>
       <c r="D344" s="11"/>
@@ -7339,7 +6864,7 @@
       <c r="L344" s="11"/>
       <c r="M344" s="11"/>
     </row>
-    <row r="345" spans="2:13">
+    <row r="345" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B345" s="11"/>
       <c r="C345" s="11"/>
       <c r="D345" s="11"/>
@@ -7353,7 +6878,7 @@
       <c r="L345" s="11"/>
       <c r="M345" s="11"/>
     </row>
-    <row r="346" spans="2:13">
+    <row r="346" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B346" s="11"/>
       <c r="C346" s="11"/>
       <c r="D346" s="11"/>
@@ -7367,7 +6892,7 @@
       <c r="L346" s="11"/>
       <c r="M346" s="11"/>
     </row>
-    <row r="347" spans="2:13">
+    <row r="347" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B347" s="11"/>
       <c r="C347" s="11"/>
       <c r="D347" s="11"/>
@@ -7381,7 +6906,7 @@
       <c r="L347" s="11"/>
       <c r="M347" s="11"/>
     </row>
-    <row r="348" spans="2:13">
+    <row r="348" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B348" s="11"/>
       <c r="C348" s="11"/>
       <c r="D348" s="11"/>
@@ -7395,7 +6920,7 @@
       <c r="L348" s="11"/>
       <c r="M348" s="11"/>
     </row>
-    <row r="349" spans="2:13">
+    <row r="349" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B349" s="11"/>
       <c r="C349" s="11"/>
       <c r="D349" s="11"/>
@@ -7409,7 +6934,7 @@
       <c r="L349" s="11"/>
       <c r="M349" s="11"/>
     </row>
-    <row r="350" spans="2:13">
+    <row r="350" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B350" s="11"/>
       <c r="C350" s="11"/>
       <c r="D350" s="11"/>
@@ -7423,7 +6948,7 @@
       <c r="L350" s="11"/>
       <c r="M350" s="11"/>
     </row>
-    <row r="351" spans="2:13">
+    <row r="351" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B351" s="11"/>
       <c r="C351" s="11"/>
       <c r="D351" s="11"/>
@@ -7437,7 +6962,7 @@
       <c r="L351" s="11"/>
       <c r="M351" s="11"/>
     </row>
-    <row r="352" spans="2:13">
+    <row r="352" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B352" s="11"/>
       <c r="C352" s="11"/>
       <c r="D352" s="11"/>
@@ -7451,7 +6976,7 @@
       <c r="L352" s="11"/>
       <c r="M352" s="11"/>
     </row>
-    <row r="353" spans="2:13">
+    <row r="353" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B353" s="11"/>
       <c r="C353" s="11"/>
       <c r="D353" s="11"/>
@@ -7465,7 +6990,7 @@
       <c r="L353" s="11"/>
       <c r="M353" s="11"/>
     </row>
-    <row r="354" spans="2:13">
+    <row r="354" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B354" s="11"/>
       <c r="C354" s="11"/>
       <c r="D354" s="11"/>
@@ -7479,7 +7004,7 @@
       <c r="L354" s="11"/>
       <c r="M354" s="11"/>
     </row>
-    <row r="355" spans="2:13">
+    <row r="355" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B355" s="11"/>
       <c r="C355" s="11"/>
       <c r="D355" s="11"/>
@@ -7493,7 +7018,7 @@
       <c r="L355" s="11"/>
       <c r="M355" s="11"/>
     </row>
-    <row r="356" spans="2:13">
+    <row r="356" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B356" s="11"/>
       <c r="C356" s="11"/>
       <c r="D356" s="11"/>
@@ -7507,7 +7032,7 @@
       <c r="L356" s="11"/>
       <c r="M356" s="11"/>
     </row>
-    <row r="357" spans="2:13">
+    <row r="357" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B357" s="11"/>
       <c r="C357" s="11"/>
       <c r="D357" s="11"/>
@@ -7521,7 +7046,7 @@
       <c r="L357" s="11"/>
       <c r="M357" s="11"/>
     </row>
-    <row r="358" spans="2:13">
+    <row r="358" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B358" s="11"/>
       <c r="C358" s="11"/>
       <c r="D358" s="11"/>
@@ -7535,7 +7060,7 @@
       <c r="L358" s="11"/>
       <c r="M358" s="11"/>
     </row>
-    <row r="359" spans="2:13">
+    <row r="359" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B359" s="11"/>
       <c r="C359" s="11"/>
       <c r="D359" s="11"/>
@@ -7549,7 +7074,7 @@
       <c r="L359" s="11"/>
       <c r="M359" s="11"/>
     </row>
-    <row r="360" spans="2:13">
+    <row r="360" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B360" s="11"/>
       <c r="C360" s="11"/>
       <c r="D360" s="11"/>
@@ -7563,7 +7088,7 @@
       <c r="L360" s="11"/>
       <c r="M360" s="11"/>
     </row>
-    <row r="361" spans="2:13">
+    <row r="361" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B361" s="11"/>
       <c r="C361" s="11"/>
       <c r="D361" s="11"/>
@@ -7577,7 +7102,7 @@
       <c r="L361" s="11"/>
       <c r="M361" s="11"/>
     </row>
-    <row r="362" spans="2:13">
+    <row r="362" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B362" s="11"/>
       <c r="C362" s="11"/>
       <c r="D362" s="11"/>
@@ -7591,7 +7116,7 @@
       <c r="L362" s="11"/>
       <c r="M362" s="11"/>
     </row>
-    <row r="363" spans="2:13">
+    <row r="363" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B363" s="11"/>
       <c r="C363" s="11"/>
       <c r="D363" s="11"/>
@@ -7605,7 +7130,7 @@
       <c r="L363" s="11"/>
       <c r="M363" s="11"/>
     </row>
-    <row r="364" spans="2:13">
+    <row r="364" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B364" s="11"/>
       <c r="C364" s="11"/>
       <c r="D364" s="11"/>
@@ -7619,7 +7144,7 @@
       <c r="L364" s="11"/>
       <c r="M364" s="11"/>
     </row>
-    <row r="365" spans="2:13">
+    <row r="365" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B365" s="11"/>
       <c r="C365" s="11"/>
       <c r="D365" s="11"/>
@@ -7633,7 +7158,7 @@
       <c r="L365" s="11"/>
       <c r="M365" s="11"/>
     </row>
-    <row r="366" spans="2:13">
+    <row r="366" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B366" s="11"/>
       <c r="C366" s="11"/>
       <c r="D366" s="11"/>
@@ -7647,7 +7172,7 @@
       <c r="L366" s="11"/>
       <c r="M366" s="11"/>
     </row>
-    <row r="367" spans="2:13">
+    <row r="367" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B367" s="11"/>
       <c r="C367" s="11"/>
       <c r="D367" s="11"/>
@@ -7661,7 +7186,7 @@
       <c r="L367" s="11"/>
       <c r="M367" s="11"/>
     </row>
-    <row r="368" spans="2:13">
+    <row r="368" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B368" s="11"/>
       <c r="C368" s="11"/>
       <c r="D368" s="11"/>
@@ -7675,7 +7200,7 @@
       <c r="L368" s="11"/>
       <c r="M368" s="11"/>
     </row>
-    <row r="369" spans="2:13">
+    <row r="369" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B369" s="11"/>
       <c r="C369" s="11"/>
       <c r="D369" s="11"/>
@@ -7689,7 +7214,7 @@
       <c r="L369" s="11"/>
       <c r="M369" s="11"/>
     </row>
-    <row r="370" spans="2:13">
+    <row r="370" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B370" s="11"/>
       <c r="C370" s="11"/>
       <c r="D370" s="11"/>
@@ -7703,7 +7228,7 @@
       <c r="L370" s="11"/>
       <c r="M370" s="11"/>
     </row>
-    <row r="371" spans="2:13">
+    <row r="371" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B371" s="11"/>
       <c r="C371" s="11"/>
       <c r="D371" s="11"/>
@@ -7717,7 +7242,7 @@
       <c r="L371" s="11"/>
       <c r="M371" s="11"/>
     </row>
-    <row r="372" spans="2:13">
+    <row r="372" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B372" s="11"/>
       <c r="C372" s="11"/>
       <c r="D372" s="11"/>
@@ -7731,7 +7256,7 @@
       <c r="L372" s="11"/>
       <c r="M372" s="11"/>
     </row>
-    <row r="373" spans="2:13">
+    <row r="373" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B373" s="11"/>
       <c r="C373" s="11"/>
       <c r="D373" s="11"/>
@@ -7745,7 +7270,7 @@
       <c r="L373" s="11"/>
       <c r="M373" s="11"/>
     </row>
-    <row r="374" spans="2:13">
+    <row r="374" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B374" s="11"/>
       <c r="C374" s="11"/>
       <c r="D374" s="11"/>
@@ -7759,7 +7284,7 @@
       <c r="L374" s="11"/>
       <c r="M374" s="11"/>
     </row>
-    <row r="375" spans="2:13">
+    <row r="375" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B375" s="11"/>
       <c r="C375" s="11"/>
       <c r="D375" s="11"/>
@@ -7773,7 +7298,7 @@
       <c r="L375" s="11"/>
       <c r="M375" s="11"/>
     </row>
-    <row r="376" spans="2:13">
+    <row r="376" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B376" s="11"/>
       <c r="C376" s="11"/>
       <c r="D376" s="11"/>
@@ -7787,7 +7312,7 @@
       <c r="L376" s="11"/>
       <c r="M376" s="11"/>
     </row>
-    <row r="377" spans="2:13">
+    <row r="377" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B377" s="11"/>
       <c r="C377" s="11"/>
       <c r="D377" s="11"/>
@@ -7801,7 +7326,7 @@
       <c r="L377" s="11"/>
       <c r="M377" s="11"/>
     </row>
-    <row r="378" spans="2:13">
+    <row r="378" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B378" s="11"/>
       <c r="C378" s="11"/>
       <c r="D378" s="11"/>
@@ -7815,7 +7340,7 @@
       <c r="L378" s="11"/>
       <c r="M378" s="11"/>
     </row>
-    <row r="379" spans="2:13">
+    <row r="379" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B379" s="11"/>
       <c r="C379" s="11"/>
       <c r="D379" s="11"/>
@@ -7829,7 +7354,7 @@
       <c r="L379" s="11"/>
       <c r="M379" s="11"/>
     </row>
-    <row r="380" spans="2:13">
+    <row r="380" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B380" s="11"/>
       <c r="C380" s="11"/>
       <c r="D380" s="11"/>
@@ -7843,7 +7368,7 @@
       <c r="L380" s="11"/>
       <c r="M380" s="11"/>
     </row>
-    <row r="381" spans="2:13">
+    <row r="381" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B381" s="11"/>
       <c r="C381" s="11"/>
       <c r="D381" s="11"/>
@@ -7857,7 +7382,7 @@
       <c r="L381" s="11"/>
       <c r="M381" s="11"/>
     </row>
-    <row r="382" spans="2:13">
+    <row r="382" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B382" s="11"/>
       <c r="C382" s="11"/>
       <c r="D382" s="11"/>
@@ -7871,7 +7396,7 @@
       <c r="L382" s="11"/>
       <c r="M382" s="11"/>
     </row>
-    <row r="383" spans="2:13">
+    <row r="383" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B383" s="11"/>
       <c r="C383" s="11"/>
       <c r="D383" s="11"/>
@@ -7885,7 +7410,7 @@
       <c r="L383" s="11"/>
       <c r="M383" s="11"/>
     </row>
-    <row r="384" spans="2:13">
+    <row r="384" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B384" s="11"/>
       <c r="C384" s="11"/>
       <c r="D384" s="11"/>
@@ -7899,7 +7424,7 @@
       <c r="L384" s="11"/>
       <c r="M384" s="11"/>
     </row>
-    <row r="385" spans="2:13">
+    <row r="385" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B385" s="11"/>
       <c r="C385" s="11"/>
       <c r="D385" s="11"/>
@@ -7913,7 +7438,7 @@
       <c r="L385" s="11"/>
       <c r="M385" s="11"/>
     </row>
-    <row r="386" spans="2:13">
+    <row r="386" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B386" s="11"/>
       <c r="C386" s="11"/>
       <c r="D386" s="11"/>
@@ -7927,7 +7452,7 @@
       <c r="L386" s="11"/>
       <c r="M386" s="11"/>
     </row>
-    <row r="387" spans="2:13">
+    <row r="387" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B387" s="11"/>
       <c r="C387" s="11"/>
       <c r="D387" s="11"/>
@@ -7941,7 +7466,7 @@
       <c r="L387" s="11"/>
       <c r="M387" s="11"/>
     </row>
-    <row r="388" spans="2:13">
+    <row r="388" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B388" s="11"/>
       <c r="C388" s="11"/>
       <c r="D388" s="11"/>
@@ -7955,7 +7480,7 @@
       <c r="L388" s="11"/>
       <c r="M388" s="11"/>
     </row>
-    <row r="389" spans="2:13">
+    <row r="389" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B389" s="11"/>
       <c r="C389" s="11"/>
       <c r="D389" s="11"/>
@@ -7969,7 +7494,7 @@
       <c r="L389" s="11"/>
       <c r="M389" s="11"/>
     </row>
-    <row r="390" spans="2:13">
+    <row r="390" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B390" s="11"/>
       <c r="C390" s="11"/>
       <c r="D390" s="11"/>
@@ -7983,7 +7508,7 @@
       <c r="L390" s="11"/>
       <c r="M390" s="11"/>
     </row>
-    <row r="391" spans="2:13">
+    <row r="391" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B391" s="11"/>
       <c r="C391" s="11"/>
       <c r="D391" s="11"/>
@@ -7997,7 +7522,7 @@
       <c r="L391" s="11"/>
       <c r="M391" s="11"/>
     </row>
-    <row r="392" spans="2:13">
+    <row r="392" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B392" s="11"/>
       <c r="C392" s="11"/>
       <c r="D392" s="11"/>
@@ -8011,7 +7536,7 @@
       <c r="L392" s="11"/>
       <c r="M392" s="11"/>
     </row>
-    <row r="393" spans="2:13">
+    <row r="393" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B393" s="11"/>
       <c r="C393" s="11"/>
       <c r="D393" s="11"/>
@@ -8025,7 +7550,7 @@
       <c r="L393" s="11"/>
       <c r="M393" s="11"/>
     </row>
-    <row r="394" spans="2:13">
+    <row r="394" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B394" s="11"/>
       <c r="C394" s="11"/>
       <c r="D394" s="11"/>
@@ -8039,7 +7564,7 @@
       <c r="L394" s="11"/>
       <c r="M394" s="11"/>
     </row>
-    <row r="395" spans="2:13">
+    <row r="395" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B395" s="11"/>
       <c r="C395" s="11"/>
       <c r="D395" s="11"/>
@@ -8053,7 +7578,7 @@
       <c r="L395" s="11"/>
       <c r="M395" s="11"/>
     </row>
-    <row r="396" spans="2:13">
+    <row r="396" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B396" s="11"/>
       <c r="C396" s="11"/>
       <c r="D396" s="11"/>
@@ -8067,7 +7592,7 @@
       <c r="L396" s="11"/>
       <c r="M396" s="11"/>
     </row>
-    <row r="397" spans="2:13">
+    <row r="397" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B397" s="11"/>
       <c r="C397" s="11"/>
       <c r="D397" s="11"/>
@@ -8081,7 +7606,7 @@
       <c r="L397" s="11"/>
       <c r="M397" s="11"/>
     </row>
-    <row r="398" spans="2:13">
+    <row r="398" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B398" s="11"/>
       <c r="C398" s="11"/>
       <c r="D398" s="11"/>
@@ -8095,7 +7620,7 @@
       <c r="L398" s="11"/>
       <c r="M398" s="11"/>
     </row>
-    <row r="399" spans="2:13">
+    <row r="399" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B399" s="11"/>
       <c r="C399" s="11"/>
       <c r="D399" s="11"/>
@@ -8109,7 +7634,7 @@
       <c r="L399" s="11"/>
       <c r="M399" s="11"/>
     </row>
-    <row r="400" spans="2:13">
+    <row r="400" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B400" s="11"/>
       <c r="C400" s="11"/>
       <c r="D400" s="11"/>
@@ -8123,7 +7648,7 @@
       <c r="L400" s="11"/>
       <c r="M400" s="11"/>
     </row>
-    <row r="401" spans="2:13">
+    <row r="401" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B401" s="11"/>
       <c r="C401" s="11"/>
       <c r="D401" s="11"/>
@@ -8137,7 +7662,7 @@
       <c r="L401" s="11"/>
       <c r="M401" s="11"/>
     </row>
-    <row r="402" spans="2:13">
+    <row r="402" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B402" s="11"/>
       <c r="C402" s="11"/>
       <c r="D402" s="11"/>
@@ -8151,7 +7676,7 @@
       <c r="L402" s="11"/>
       <c r="M402" s="11"/>
     </row>
-    <row r="403" spans="2:13">
+    <row r="403" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B403" s="11"/>
       <c r="C403" s="11"/>
       <c r="D403" s="11"/>
@@ -8165,7 +7690,7 @@
       <c r="L403" s="11"/>
       <c r="M403" s="11"/>
     </row>
-    <row r="404" spans="2:13">
+    <row r="404" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B404" s="11"/>
       <c r="C404" s="11"/>
       <c r="D404" s="11"/>
@@ -8179,7 +7704,7 @@
       <c r="L404" s="11"/>
       <c r="M404" s="11"/>
     </row>
-    <row r="405" spans="2:13">
+    <row r="405" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B405" s="11"/>
       <c r="C405" s="11"/>
       <c r="D405" s="11"/>
@@ -8193,7 +7718,7 @@
       <c r="L405" s="11"/>
       <c r="M405" s="11"/>
     </row>
-    <row r="406" spans="2:13">
+    <row r="406" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B406" s="11"/>
       <c r="C406" s="11"/>
       <c r="D406" s="11"/>
@@ -8207,7 +7732,7 @@
       <c r="L406" s="11"/>
       <c r="M406" s="11"/>
     </row>
-    <row r="407" spans="2:13">
+    <row r="407" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B407" s="11"/>
       <c r="C407" s="11"/>
       <c r="D407" s="11"/>
@@ -8221,7 +7746,7 @@
       <c r="L407" s="11"/>
       <c r="M407" s="11"/>
     </row>
-    <row r="408" spans="2:13">
+    <row r="408" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B408" s="11"/>
       <c r="C408" s="11"/>
       <c r="D408" s="11"/>
@@ -8235,7 +7760,7 @@
       <c r="L408" s="11"/>
       <c r="M408" s="11"/>
     </row>
-    <row r="409" spans="2:13">
+    <row r="409" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B409" s="11"/>
       <c r="C409" s="11"/>
       <c r="D409" s="11"/>
@@ -8249,7 +7774,7 @@
       <c r="L409" s="11"/>
       <c r="M409" s="11"/>
     </row>
-    <row r="410" spans="2:13">
+    <row r="410" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B410" s="11"/>
       <c r="C410" s="11"/>
       <c r="D410" s="11"/>
@@ -8263,7 +7788,7 @@
       <c r="L410" s="11"/>
       <c r="M410" s="11"/>
     </row>
-    <row r="411" spans="2:13">
+    <row r="411" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B411" s="11"/>
       <c r="C411" s="11"/>
       <c r="D411" s="11"/>
@@ -8277,7 +7802,7 @@
       <c r="L411" s="11"/>
       <c r="M411" s="11"/>
     </row>
-    <row r="412" spans="2:13">
+    <row r="412" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B412" s="11"/>
       <c r="C412" s="11"/>
       <c r="D412" s="11"/>
@@ -8291,7 +7816,7 @@
       <c r="L412" s="11"/>
       <c r="M412" s="11"/>
     </row>
-    <row r="413" spans="2:13">
+    <row r="413" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B413" s="11"/>
       <c r="C413" s="11"/>
       <c r="D413" s="11"/>
@@ -8305,7 +7830,7 @@
       <c r="L413" s="11"/>
       <c r="M413" s="11"/>
     </row>
-    <row r="414" spans="2:13">
+    <row r="414" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B414" s="11"/>
       <c r="C414" s="11"/>
       <c r="D414" s="11"/>
@@ -8319,7 +7844,7 @@
       <c r="L414" s="11"/>
       <c r="M414" s="11"/>
     </row>
-    <row r="415" spans="2:13">
+    <row r="415" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B415" s="11"/>
       <c r="C415" s="11"/>
       <c r="D415" s="11"/>
@@ -8333,7 +7858,7 @@
       <c r="L415" s="11"/>
       <c r="M415" s="11"/>
     </row>
-    <row r="416" spans="2:13">
+    <row r="416" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B416" s="11"/>
       <c r="C416" s="11"/>
       <c r="D416" s="11"/>
@@ -8347,7 +7872,7 @@
       <c r="L416" s="11"/>
       <c r="M416" s="11"/>
     </row>
-    <row r="417" spans="2:13">
+    <row r="417" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B417" s="11"/>
       <c r="C417" s="11"/>
       <c r="D417" s="11"/>
@@ -8361,7 +7886,7 @@
       <c r="L417" s="11"/>
       <c r="M417" s="11"/>
     </row>
-    <row r="418" spans="2:13">
+    <row r="418" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B418" s="11"/>
       <c r="C418" s="11"/>
       <c r="D418" s="11"/>
@@ -8375,7 +7900,7 @@
       <c r="L418" s="11"/>
       <c r="M418" s="11"/>
     </row>
-    <row r="419" spans="2:13">
+    <row r="419" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B419" s="11"/>
       <c r="C419" s="11"/>
       <c r="D419" s="11"/>
@@ -8389,7 +7914,7 @@
       <c r="L419" s="11"/>
       <c r="M419" s="11"/>
     </row>
-    <row r="420" spans="2:13">
+    <row r="420" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B420" s="11"/>
       <c r="C420" s="11"/>
       <c r="D420" s="11"/>
@@ -8403,7 +7928,7 @@
       <c r="L420" s="11"/>
       <c r="M420" s="11"/>
     </row>
-    <row r="421" spans="2:13">
+    <row r="421" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B421" s="11"/>
       <c r="C421" s="11"/>
       <c r="D421" s="11"/>
@@ -8417,7 +7942,7 @@
       <c r="L421" s="11"/>
       <c r="M421" s="11"/>
     </row>
-    <row r="422" spans="2:13">
+    <row r="422" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B422" s="11"/>
       <c r="C422" s="11"/>
       <c r="D422" s="11"/>
@@ -8431,7 +7956,7 @@
       <c r="L422" s="11"/>
       <c r="M422" s="11"/>
     </row>
-    <row r="423" spans="2:13">
+    <row r="423" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B423" s="11"/>
       <c r="C423" s="11"/>
       <c r="D423" s="11"/>
@@ -8445,7 +7970,7 @@
       <c r="L423" s="11"/>
       <c r="M423" s="11"/>
     </row>
-    <row r="424" spans="2:13">
+    <row r="424" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B424" s="11"/>
       <c r="C424" s="11"/>
       <c r="D424" s="11"/>
@@ -8459,7 +7984,7 @@
       <c r="L424" s="11"/>
       <c r="M424" s="11"/>
     </row>
-    <row r="425" spans="2:13">
+    <row r="425" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B425" s="11"/>
       <c r="C425" s="11"/>
       <c r="D425" s="11"/>
@@ -8473,7 +7998,7 @@
       <c r="L425" s="11"/>
       <c r="M425" s="11"/>
     </row>
-    <row r="426" spans="2:13">
+    <row r="426" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B426" s="11"/>
       <c r="C426" s="11"/>
       <c r="D426" s="11"/>
@@ -8487,7 +8012,7 @@
       <c r="L426" s="11"/>
       <c r="M426" s="11"/>
     </row>
-    <row r="427" spans="2:13">
+    <row r="427" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B427" s="11"/>
       <c r="C427" s="11"/>
       <c r="D427" s="11"/>
@@ -8501,7 +8026,7 @@
       <c r="L427" s="11"/>
       <c r="M427" s="11"/>
     </row>
-    <row r="428" spans="2:13">
+    <row r="428" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B428" s="11"/>
       <c r="C428" s="11"/>
       <c r="D428" s="11"/>
@@ -8515,7 +8040,7 @@
       <c r="L428" s="11"/>
       <c r="M428" s="11"/>
     </row>
-    <row r="429" spans="2:13">
+    <row r="429" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B429" s="11"/>
       <c r="C429" s="11"/>
       <c r="D429" s="11"/>
@@ -8529,7 +8054,7 @@
       <c r="L429" s="11"/>
       <c r="M429" s="11"/>
     </row>
-    <row r="430" spans="2:13">
+    <row r="430" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B430" s="11"/>
       <c r="C430" s="11"/>
       <c r="D430" s="11"/>
@@ -8543,7 +8068,7 @@
       <c r="L430" s="11"/>
       <c r="M430" s="11"/>
     </row>
-    <row r="431" spans="2:13">
+    <row r="431" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B431" s="11"/>
       <c r="C431" s="11"/>
       <c r="D431" s="11"/>
@@ -8557,7 +8082,7 @@
       <c r="L431" s="11"/>
       <c r="M431" s="11"/>
     </row>
-    <row r="432" spans="2:13">
+    <row r="432" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B432" s="11"/>
       <c r="C432" s="11"/>
       <c r="D432" s="11"/>
@@ -8571,7 +8096,7 @@
       <c r="L432" s="11"/>
       <c r="M432" s="11"/>
     </row>
-    <row r="433" spans="2:13">
+    <row r="433" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B433" s="11"/>
       <c r="C433" s="11"/>
       <c r="D433" s="11"/>
@@ -8585,7 +8110,7 @@
       <c r="L433" s="11"/>
       <c r="M433" s="11"/>
     </row>
-    <row r="434" spans="2:13">
+    <row r="434" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B434" s="11"/>
       <c r="C434" s="11"/>
       <c r="D434" s="11"/>
@@ -8599,7 +8124,7 @@
       <c r="L434" s="11"/>
       <c r="M434" s="11"/>
     </row>
-    <row r="435" spans="2:13">
+    <row r="435" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B435" s="11"/>
       <c r="C435" s="11"/>
       <c r="D435" s="11"/>
@@ -8613,7 +8138,7 @@
       <c r="L435" s="11"/>
       <c r="M435" s="11"/>
     </row>
-    <row r="436" spans="2:13">
+    <row r="436" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B436" s="11"/>
       <c r="C436" s="11"/>
       <c r="D436" s="11"/>
@@ -8627,7 +8152,7 @@
       <c r="L436" s="11"/>
       <c r="M436" s="11"/>
     </row>
-    <row r="437" spans="2:13">
+    <row r="437" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B437" s="11"/>
       <c r="C437" s="11"/>
       <c r="D437" s="11"/>
@@ -8641,7 +8166,7 @@
       <c r="L437" s="11"/>
       <c r="M437" s="11"/>
     </row>
-    <row r="438" spans="2:13">
+    <row r="438" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B438" s="11"/>
       <c r="C438" s="11"/>
       <c r="D438" s="11"/>
@@ -8655,7 +8180,7 @@
       <c r="L438" s="11"/>
       <c r="M438" s="11"/>
     </row>
-    <row r="439" spans="2:13">
+    <row r="439" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B439" s="11"/>
       <c r="C439" s="11"/>
       <c r="D439" s="11"/>
@@ -8669,7 +8194,7 @@
       <c r="L439" s="11"/>
       <c r="M439" s="11"/>
     </row>
-    <row r="440" spans="2:13">
+    <row r="440" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B440" s="11"/>
       <c r="C440" s="11"/>
       <c r="D440" s="11"/>
@@ -8683,7 +8208,7 @@
       <c r="L440" s="11"/>
       <c r="M440" s="11"/>
     </row>
-    <row r="441" spans="2:13">
+    <row r="441" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B441" s="11"/>
       <c r="C441" s="11"/>
       <c r="D441" s="11"/>
@@ -8697,7 +8222,7 @@
       <c r="L441" s="11"/>
       <c r="M441" s="11"/>
     </row>
-    <row r="442" spans="2:13">
+    <row r="442" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B442" s="11"/>
       <c r="C442" s="11"/>
       <c r="D442" s="11"/>
@@ -8711,7 +8236,7 @@
       <c r="L442" s="11"/>
       <c r="M442" s="11"/>
     </row>
-    <row r="443" spans="2:13">
+    <row r="443" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B443" s="11"/>
       <c r="C443" s="11"/>
       <c r="D443" s="11"/>
@@ -8725,7 +8250,7 @@
       <c r="L443" s="11"/>
       <c r="M443" s="11"/>
     </row>
-    <row r="444" spans="2:13">
+    <row r="444" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B444" s="11"/>
       <c r="C444" s="11"/>
       <c r="D444" s="11"/>
@@ -8739,7 +8264,7 @@
       <c r="L444" s="11"/>
       <c r="M444" s="11"/>
     </row>
-    <row r="445" spans="2:13">
+    <row r="445" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B445" s="11"/>
       <c r="C445" s="11"/>
       <c r="D445" s="11"/>
@@ -8753,7 +8278,7 @@
       <c r="L445" s="11"/>
       <c r="M445" s="11"/>
     </row>
-    <row r="446" spans="2:13">
+    <row r="446" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B446" s="11"/>
       <c r="C446" s="11"/>
       <c r="D446" s="11"/>
@@ -8767,7 +8292,7 @@
       <c r="L446" s="11"/>
       <c r="M446" s="11"/>
     </row>
-    <row r="447" spans="2:13">
+    <row r="447" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B447" s="11"/>
       <c r="C447" s="11"/>
       <c r="D447" s="11"/>
@@ -8781,7 +8306,7 @@
       <c r="L447" s="11"/>
       <c r="M447" s="11"/>
     </row>
-    <row r="448" spans="2:13">
+    <row r="448" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B448" s="11"/>
       <c r="C448" s="11"/>
       <c r="D448" s="11"/>
@@ -8795,7 +8320,7 @@
       <c r="L448" s="11"/>
       <c r="M448" s="11"/>
     </row>
-    <row r="449" spans="2:13">
+    <row r="449" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B449" s="11"/>
       <c r="C449" s="11"/>
       <c r="D449" s="11"/>
@@ -8809,7 +8334,7 @@
       <c r="L449" s="11"/>
       <c r="M449" s="11"/>
     </row>
-    <row r="450" spans="2:13">
+    <row r="450" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B450" s="11"/>
       <c r="C450" s="11"/>
       <c r="D450" s="11"/>
@@ -8823,7 +8348,7 @@
       <c r="L450" s="11"/>
       <c r="M450" s="11"/>
     </row>
-    <row r="451" spans="2:13">
+    <row r="451" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B451" s="11"/>
       <c r="C451" s="11"/>
       <c r="D451" s="11"/>
@@ -8837,7 +8362,7 @@
       <c r="L451" s="11"/>
       <c r="M451" s="11"/>
     </row>
-    <row r="452" spans="2:13">
+    <row r="452" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B452" s="11"/>
       <c r="C452" s="11"/>
       <c r="D452" s="11"/>
@@ -8851,7 +8376,7 @@
       <c r="L452" s="11"/>
       <c r="M452" s="11"/>
     </row>
-    <row r="453" spans="2:13">
+    <row r="453" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B453" s="11"/>
       <c r="C453" s="11"/>
       <c r="D453" s="11"/>
@@ -8865,7 +8390,7 @@
       <c r="L453" s="11"/>
       <c r="M453" s="11"/>
     </row>
-    <row r="454" spans="2:13">
+    <row r="454" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B454" s="11"/>
       <c r="C454" s="11"/>
       <c r="D454" s="11"/>
@@ -8879,7 +8404,7 @@
       <c r="L454" s="11"/>
       <c r="M454" s="11"/>
     </row>
-    <row r="455" spans="2:13">
+    <row r="455" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B455" s="11"/>
       <c r="C455" s="11"/>
       <c r="D455" s="11"/>
@@ -8893,7 +8418,7 @@
       <c r="L455" s="11"/>
       <c r="M455" s="11"/>
     </row>
-    <row r="456" spans="2:13">
+    <row r="456" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B456" s="11"/>
       <c r="C456" s="11"/>
       <c r="D456" s="11"/>
@@ -8907,7 +8432,7 @@
       <c r="L456" s="11"/>
       <c r="M456" s="11"/>
     </row>
-    <row r="457" spans="2:13">
+    <row r="457" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B457" s="11"/>
       <c r="C457" s="11"/>
       <c r="D457" s="11"/>
@@ -8921,7 +8446,7 @@
       <c r="L457" s="11"/>
       <c r="M457" s="11"/>
     </row>
-    <row r="458" spans="2:13">
+    <row r="458" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B458" s="11"/>
       <c r="C458" s="11"/>
       <c r="D458" s="11"/>
@@ -8935,7 +8460,7 @@
       <c r="L458" s="11"/>
       <c r="M458" s="11"/>
     </row>
-    <row r="459" spans="2:13">
+    <row r="459" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B459" s="11"/>
       <c r="C459" s="11"/>
       <c r="D459" s="11"/>
@@ -8949,7 +8474,7 @@
       <c r="L459" s="11"/>
       <c r="M459" s="11"/>
     </row>
-    <row r="460" spans="2:13">
+    <row r="460" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B460" s="11"/>
       <c r="C460" s="11"/>
       <c r="D460" s="11"/>
@@ -8963,7 +8488,7 @@
       <c r="L460" s="11"/>
       <c r="M460" s="11"/>
     </row>
-    <row r="461" spans="2:13">
+    <row r="461" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B461" s="11"/>
       <c r="C461" s="11"/>
       <c r="D461" s="11"/>
@@ -8977,7 +8502,7 @@
       <c r="L461" s="11"/>
       <c r="M461" s="11"/>
     </row>
-    <row r="462" spans="2:13">
+    <row r="462" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B462" s="11"/>
       <c r="C462" s="11"/>
       <c r="D462" s="11"/>
@@ -8991,7 +8516,7 @@
       <c r="L462" s="11"/>
       <c r="M462" s="11"/>
     </row>
-    <row r="463" spans="2:13">
+    <row r="463" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B463" s="11"/>
       <c r="C463" s="11"/>
       <c r="D463" s="11"/>
@@ -9005,7 +8530,7 @@
       <c r="L463" s="11"/>
       <c r="M463" s="11"/>
     </row>
-    <row r="464" spans="2:13">
+    <row r="464" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B464" s="11"/>
       <c r="C464" s="11"/>
       <c r="D464" s="11"/>
@@ -9019,7 +8544,7 @@
       <c r="L464" s="11"/>
       <c r="M464" s="11"/>
     </row>
-    <row r="465" spans="2:13">
+    <row r="465" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B465" s="11"/>
       <c r="C465" s="11"/>
       <c r="D465" s="11"/>
@@ -9033,7 +8558,7 @@
       <c r="L465" s="11"/>
       <c r="M465" s="11"/>
     </row>
-    <row r="466" spans="2:13">
+    <row r="466" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B466" s="11"/>
       <c r="C466" s="11"/>
       <c r="D466" s="11"/>
@@ -9047,7 +8572,7 @@
       <c r="L466" s="11"/>
       <c r="M466" s="11"/>
     </row>
-    <row r="467" spans="2:13">
+    <row r="467" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B467" s="11"/>
       <c r="C467" s="11"/>
       <c r="D467" s="11"/>
@@ -9061,7 +8586,7 @@
       <c r="L467" s="11"/>
       <c r="M467" s="11"/>
     </row>
-    <row r="468" spans="2:13">
+    <row r="468" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B468" s="11"/>
       <c r="C468" s="11"/>
       <c r="D468" s="11"/>
@@ -9075,7 +8600,7 @@
       <c r="L468" s="11"/>
       <c r="M468" s="11"/>
     </row>
-    <row r="469" spans="2:13">
+    <row r="469" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B469" s="11"/>
       <c r="C469" s="11"/>
       <c r="D469" s="11"/>
@@ -9089,7 +8614,7 @@
       <c r="L469" s="11"/>
       <c r="M469" s="11"/>
     </row>
-    <row r="470" spans="2:13">
+    <row r="470" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B470" s="11"/>
       <c r="C470" s="11"/>
       <c r="D470" s="11"/>
@@ -9103,7 +8628,7 @@
       <c r="L470" s="11"/>
       <c r="M470" s="11"/>
     </row>
-    <row r="471" spans="2:13">
+    <row r="471" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B471" s="11"/>
       <c r="C471" s="11"/>
       <c r="D471" s="11"/>
@@ -9117,7 +8642,7 @@
       <c r="L471" s="11"/>
       <c r="M471" s="11"/>
     </row>
-    <row r="472" spans="2:13">
+    <row r="472" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B472" s="11"/>
       <c r="C472" s="11"/>
       <c r="D472" s="11"/>
@@ -9131,7 +8656,7 @@
       <c r="L472" s="11"/>
       <c r="M472" s="11"/>
     </row>
-    <row r="473" spans="2:13">
+    <row r="473" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B473" s="11"/>
       <c r="C473" s="11"/>
       <c r="D473" s="11"/>
@@ -9145,7 +8670,7 @@
       <c r="L473" s="11"/>
       <c r="M473" s="11"/>
     </row>
-    <row r="474" spans="2:13">
+    <row r="474" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B474" s="11"/>
       <c r="C474" s="11"/>
       <c r="D474" s="11"/>
@@ -9159,7 +8684,7 @@
       <c r="L474" s="11"/>
       <c r="M474" s="11"/>
     </row>
-    <row r="475" spans="2:13">
+    <row r="475" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B475" s="11"/>
       <c r="C475" s="11"/>
       <c r="D475" s="11"/>
@@ -9173,7 +8698,7 @@
       <c r="L475" s="11"/>
       <c r="M475" s="11"/>
     </row>
-    <row r="476" spans="2:13">
+    <row r="476" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B476" s="11"/>
       <c r="C476" s="11"/>
       <c r="D476" s="11"/>
@@ -9187,7 +8712,7 @@
       <c r="L476" s="11"/>
       <c r="M476" s="11"/>
     </row>
-    <row r="477" spans="2:13">
+    <row r="477" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B477" s="11"/>
       <c r="C477" s="11"/>
       <c r="D477" s="11"/>
@@ -9201,7 +8726,7 @@
       <c r="L477" s="11"/>
       <c r="M477" s="11"/>
     </row>
-    <row r="478" spans="2:13">
+    <row r="478" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B478" s="11"/>
       <c r="C478" s="11"/>
       <c r="D478" s="11"/>
@@ -9215,7 +8740,7 @@
       <c r="L478" s="11"/>
       <c r="M478" s="11"/>
     </row>
-    <row r="479" spans="2:13">
+    <row r="479" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B479" s="11"/>
       <c r="C479" s="11"/>
       <c r="D479" s="11"/>
@@ -9229,7 +8754,7 @@
       <c r="L479" s="11"/>
       <c r="M479" s="11"/>
     </row>
-    <row r="480" spans="2:13">
+    <row r="480" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B480" s="11"/>
       <c r="C480" s="11"/>
       <c r="D480" s="11"/>
@@ -9243,7 +8768,7 @@
       <c r="L480" s="11"/>
       <c r="M480" s="11"/>
     </row>
-    <row r="481" spans="2:13">
+    <row r="481" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B481" s="11"/>
       <c r="C481" s="11"/>
       <c r="D481" s="11"/>
@@ -9257,7 +8782,7 @@
       <c r="L481" s="11"/>
       <c r="M481" s="11"/>
     </row>
-    <row r="482" spans="2:13">
+    <row r="482" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B482" s="11"/>
       <c r="C482" s="11"/>
       <c r="D482" s="11"/>
@@ -9271,7 +8796,7 @@
       <c r="L482" s="11"/>
       <c r="M482" s="11"/>
     </row>
-    <row r="483" spans="2:13">
+    <row r="483" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B483" s="11"/>
       <c r="C483" s="11"/>
       <c r="D483" s="11"/>
@@ -9285,7 +8810,7 @@
       <c r="L483" s="11"/>
       <c r="M483" s="11"/>
     </row>
-    <row r="484" spans="2:13">
+    <row r="484" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B484" s="11"/>
       <c r="C484" s="11"/>
       <c r="D484" s="11"/>
@@ -9299,7 +8824,7 @@
       <c r="L484" s="11"/>
       <c r="M484" s="11"/>
     </row>
-    <row r="485" spans="2:13">
+    <row r="485" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B485" s="11"/>
       <c r="C485" s="11"/>
       <c r="D485" s="11"/>
@@ -9313,7 +8838,7 @@
       <c r="L485" s="11"/>
       <c r="M485" s="11"/>
     </row>
-    <row r="486" spans="2:13">
+    <row r="486" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B486" s="11"/>
       <c r="C486" s="11"/>
       <c r="D486" s="11"/>
@@ -9327,7 +8852,7 @@
       <c r="L486" s="11"/>
       <c r="M486" s="11"/>
     </row>
-    <row r="487" spans="2:13">
+    <row r="487" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B487" s="11"/>
       <c r="C487" s="11"/>
       <c r="D487" s="11"/>
@@ -9341,7 +8866,7 @@
       <c r="L487" s="11"/>
       <c r="M487" s="11"/>
     </row>
-    <row r="488" spans="2:13">
+    <row r="488" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B488" s="11"/>
       <c r="C488" s="11"/>
       <c r="D488" s="11"/>
@@ -9355,7 +8880,7 @@
       <c r="L488" s="11"/>
       <c r="M488" s="11"/>
     </row>
-    <row r="489" spans="2:13">
+    <row r="489" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B489" s="11"/>
       <c r="C489" s="11"/>
       <c r="D489" s="11"/>
@@ -9369,7 +8894,7 @@
       <c r="L489" s="11"/>
       <c r="M489" s="11"/>
     </row>
-    <row r="490" spans="2:13">
+    <row r="490" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B490" s="11"/>
       <c r="C490" s="11"/>
       <c r="D490" s="11"/>
@@ -9383,7 +8908,7 @@
       <c r="L490" s="11"/>
       <c r="M490" s="11"/>
     </row>
-    <row r="491" spans="2:13">
+    <row r="491" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B491" s="11"/>
       <c r="C491" s="11"/>
       <c r="D491" s="11"/>
@@ -9397,7 +8922,7 @@
       <c r="L491" s="11"/>
       <c r="M491" s="11"/>
     </row>
-    <row r="492" spans="2:13">
+    <row r="492" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B492" s="11"/>
       <c r="C492" s="11"/>
       <c r="D492" s="11"/>
@@ -9411,7 +8936,7 @@
       <c r="L492" s="11"/>
       <c r="M492" s="11"/>
     </row>
-    <row r="493" spans="2:13">
+    <row r="493" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B493" s="11"/>
       <c r="C493" s="11"/>
       <c r="D493" s="11"/>
@@ -9425,7 +8950,7 @@
       <c r="L493" s="11"/>
       <c r="M493" s="11"/>
     </row>
-    <row r="494" spans="2:13">
+    <row r="494" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B494" s="11"/>
       <c r="C494" s="11"/>
       <c r="D494" s="11"/>
@@ -9439,7 +8964,7 @@
       <c r="L494" s="11"/>
       <c r="M494" s="11"/>
     </row>
-    <row r="495" spans="2:13">
+    <row r="495" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B495" s="11"/>
       <c r="C495" s="11"/>
       <c r="D495" s="11"/>
@@ -9453,7 +8978,7 @@
       <c r="L495" s="11"/>
       <c r="M495" s="11"/>
     </row>
-    <row r="496" spans="2:13">
+    <row r="496" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B496" s="11"/>
       <c r="C496" s="11"/>
       <c r="D496" s="11"/>
@@ -9467,7 +8992,7 @@
       <c r="L496" s="11"/>
       <c r="M496" s="11"/>
     </row>
-    <row r="497" spans="2:13">
+    <row r="497" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B497" s="11"/>
       <c r="C497" s="11"/>
       <c r="D497" s="11"/>
@@ -9481,7 +9006,7 @@
       <c r="L497" s="11"/>
       <c r="M497" s="11"/>
     </row>
-    <row r="498" spans="2:13">
+    <row r="498" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B498" s="11"/>
       <c r="C498" s="11"/>
       <c r="D498" s="11"/>
@@ -9495,7 +9020,7 @@
       <c r="L498" s="11"/>
       <c r="M498" s="11"/>
     </row>
-    <row r="499" spans="2:13">
+    <row r="499" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B499" s="11"/>
       <c r="C499" s="11"/>
       <c r="D499" s="11"/>
@@ -9509,7 +9034,7 @@
       <c r="L499" s="11"/>
       <c r="M499" s="11"/>
     </row>
-    <row r="500" spans="2:13">
+    <row r="500" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B500" s="11"/>
       <c r="C500" s="11"/>
       <c r="D500" s="11"/>
@@ -9523,7 +9048,7 @@
       <c r="L500" s="11"/>
       <c r="M500" s="11"/>
     </row>
-    <row r="501" spans="2:13">
+    <row r="501" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B501" s="11"/>
       <c r="C501" s="11"/>
       <c r="D501" s="11"/>
@@ -9537,7 +9062,7 @@
       <c r="L501" s="11"/>
       <c r="M501" s="11"/>
     </row>
-    <row r="502" spans="2:13">
+    <row r="502" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B502" s="11"/>
       <c r="C502" s="11"/>
       <c r="D502" s="11"/>
@@ -9551,7 +9076,7 @@
       <c r="L502" s="11"/>
       <c r="M502" s="11"/>
     </row>
-    <row r="503" spans="2:13">
+    <row r="503" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B503" s="11"/>
       <c r="C503" s="11"/>
       <c r="D503" s="11"/>
@@ -9565,7 +9090,7 @@
       <c r="L503" s="11"/>
       <c r="M503" s="11"/>
     </row>
-    <row r="504" spans="2:13">
+    <row r="504" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B504" s="11"/>
       <c r="C504" s="11"/>
       <c r="D504" s="11"/>
@@ -9579,7 +9104,7 @@
       <c r="L504" s="11"/>
       <c r="M504" s="11"/>
     </row>
-    <row r="505" spans="2:13">
+    <row r="505" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B505" s="11"/>
       <c r="C505" s="11"/>
       <c r="D505" s="11"/>
@@ -9593,7 +9118,7 @@
       <c r="L505" s="11"/>
       <c r="M505" s="11"/>
     </row>
-    <row r="506" spans="2:13">
+    <row r="506" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B506" s="11"/>
       <c r="C506" s="11"/>
       <c r="D506" s="11"/>
@@ -9607,7 +9132,7 @@
       <c r="L506" s="11"/>
       <c r="M506" s="11"/>
     </row>
-    <row r="507" spans="2:13">
+    <row r="507" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B507" s="11"/>
       <c r="C507" s="11"/>
       <c r="D507" s="11"/>
@@ -9621,7 +9146,7 @@
       <c r="L507" s="11"/>
       <c r="M507" s="11"/>
     </row>
-    <row r="508" spans="2:13">
+    <row r="508" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B508" s="11"/>
       <c r="C508" s="11"/>
       <c r="D508" s="11"/>
@@ -9635,7 +9160,7 @@
       <c r="L508" s="11"/>
       <c r="M508" s="11"/>
     </row>
-    <row r="509" spans="2:13">
+    <row r="509" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B509" s="11"/>
       <c r="C509" s="11"/>
       <c r="D509" s="11"/>
@@ -9649,7 +9174,7 @@
       <c r="L509" s="11"/>
       <c r="M509" s="11"/>
     </row>
-    <row r="510" spans="2:13">
+    <row r="510" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B510" s="11"/>
       <c r="C510" s="11"/>
       <c r="D510" s="11"/>
@@ -9663,7 +9188,7 @@
       <c r="L510" s="11"/>
       <c r="M510" s="11"/>
     </row>
-    <row r="511" spans="2:13">
+    <row r="511" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B511" s="11"/>
       <c r="C511" s="11"/>
       <c r="D511" s="11"/>
@@ -9677,7 +9202,7 @@
       <c r="L511" s="11"/>
       <c r="M511" s="11"/>
     </row>
-    <row r="512" spans="2:13">
+    <row r="512" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B512" s="11"/>
       <c r="C512" s="11"/>
       <c r="D512" s="11"/>
@@ -9691,7 +9216,7 @@
       <c r="L512" s="11"/>
       <c r="M512" s="11"/>
     </row>
-    <row r="513" spans="2:13">
+    <row r="513" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B513" s="11"/>
       <c r="C513" s="11"/>
       <c r="D513" s="11"/>
@@ -9705,7 +9230,7 @@
       <c r="L513" s="11"/>
       <c r="M513" s="11"/>
     </row>
-    <row r="514" spans="2:13">
+    <row r="514" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B514" s="11"/>
       <c r="C514" s="11"/>
       <c r="D514" s="11"/>
@@ -9719,7 +9244,7 @@
       <c r="L514" s="11"/>
       <c r="M514" s="11"/>
     </row>
-    <row r="515" spans="2:13">
+    <row r="515" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B515" s="11"/>
       <c r="C515" s="11"/>
       <c r="D515" s="11"/>
@@ -9733,7 +9258,7 @@
       <c r="L515" s="11"/>
       <c r="M515" s="11"/>
     </row>
-    <row r="516" spans="2:13">
+    <row r="516" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B516" s="11"/>
       <c r="C516" s="11"/>
       <c r="D516" s="11"/>
@@ -9747,7 +9272,7 @@
       <c r="L516" s="11"/>
       <c r="M516" s="11"/>
     </row>
-    <row r="517" spans="2:13">
+    <row r="517" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B517" s="11"/>
       <c r="C517" s="11"/>
       <c r="D517" s="11"/>
@@ -9761,7 +9286,7 @@
       <c r="L517" s="11"/>
       <c r="M517" s="11"/>
     </row>
-    <row r="518" spans="2:13">
+    <row r="518" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B518" s="11"/>
       <c r="C518" s="11"/>
       <c r="D518" s="11"/>
@@ -9775,7 +9300,7 @@
       <c r="L518" s="11"/>
       <c r="M518" s="11"/>
     </row>
-    <row r="519" spans="2:13">
+    <row r="519" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B519" s="11"/>
       <c r="C519" s="11"/>
       <c r="D519" s="11"/>
@@ -9789,7 +9314,7 @@
       <c r="L519" s="11"/>
       <c r="M519" s="11"/>
     </row>
-    <row r="520" spans="2:13">
+    <row r="520" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B520" s="11"/>
       <c r="C520" s="11"/>
       <c r="D520" s="11"/>
@@ -9803,7 +9328,7 @@
       <c r="L520" s="11"/>
       <c r="M520" s="11"/>
     </row>
-    <row r="521" spans="2:13">
+    <row r="521" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B521" s="11"/>
       <c r="C521" s="11"/>
       <c r="D521" s="11"/>
@@ -9817,7 +9342,7 @@
       <c r="L521" s="11"/>
       <c r="M521" s="11"/>
     </row>
-    <row r="522" spans="2:13">
+    <row r="522" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B522" s="11"/>
       <c r="C522" s="11"/>
       <c r="D522" s="11"/>
@@ -9831,7 +9356,7 @@
       <c r="L522" s="11"/>
       <c r="M522" s="11"/>
     </row>
-    <row r="523" spans="2:13">
+    <row r="523" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B523" s="11"/>
       <c r="C523" s="11"/>
       <c r="D523" s="11"/>
@@ -9845,7 +9370,7 @@
       <c r="L523" s="11"/>
       <c r="M523" s="11"/>
     </row>
-    <row r="524" spans="2:13">
+    <row r="524" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B524" s="11"/>
       <c r="C524" s="11"/>
       <c r="D524" s="11"/>
@@ -9859,7 +9384,7 @@
       <c r="L524" s="11"/>
       <c r="M524" s="11"/>
     </row>
-    <row r="525" spans="2:13">
+    <row r="525" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B525" s="11"/>
       <c r="C525" s="11"/>
       <c r="D525" s="11"/>
@@ -9873,7 +9398,7 @@
       <c r="L525" s="11"/>
       <c r="M525" s="11"/>
     </row>
-    <row r="526" spans="2:13">
+    <row r="526" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B526" s="11"/>
       <c r="C526" s="11"/>
       <c r="D526" s="11"/>
@@ -9887,7 +9412,7 @@
       <c r="L526" s="11"/>
       <c r="M526" s="11"/>
     </row>
-    <row r="527" spans="2:13">
+    <row r="527" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B527" s="11"/>
       <c r="C527" s="11"/>
       <c r="D527" s="11"/>
@@ -9901,7 +9426,7 @@
       <c r="L527" s="11"/>
       <c r="M527" s="11"/>
     </row>
-    <row r="528" spans="2:13">
+    <row r="528" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B528" s="11"/>
       <c r="C528" s="11"/>
       <c r="D528" s="11"/>
@@ -9915,7 +9440,7 @@
       <c r="L528" s="11"/>
       <c r="M528" s="11"/>
     </row>
-    <row r="529" spans="2:13">
+    <row r="529" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B529" s="11"/>
       <c r="C529" s="11"/>
       <c r="D529" s="11"/>
@@ -9929,7 +9454,7 @@
       <c r="L529" s="11"/>
       <c r="M529" s="11"/>
     </row>
-    <row r="530" spans="2:13">
+    <row r="530" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B530" s="11"/>
       <c r="C530" s="11"/>
       <c r="D530" s="11"/>
@@ -9943,7 +9468,7 @@
       <c r="L530" s="11"/>
       <c r="M530" s="11"/>
     </row>
-    <row r="531" spans="2:13">
+    <row r="531" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B531" s="11"/>
       <c r="C531" s="11"/>
       <c r="D531" s="11"/>
@@ -9957,7 +9482,7 @@
       <c r="L531" s="11"/>
       <c r="M531" s="11"/>
     </row>
-    <row r="532" spans="2:13">
+    <row r="532" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B532" s="11"/>
       <c r="C532" s="11"/>
       <c r="D532" s="11"/>
@@ -9971,7 +9496,7 @@
       <c r="L532" s="11"/>
       <c r="M532" s="11"/>
     </row>
-    <row r="533" spans="2:13">
+    <row r="533" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B533" s="11"/>
       <c r="C533" s="11"/>
       <c r="D533" s="11"/>
@@ -9985,7 +9510,7 @@
       <c r="L533" s="11"/>
       <c r="M533" s="11"/>
     </row>
-    <row r="534" spans="2:13">
+    <row r="534" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B534" s="11"/>
       <c r="C534" s="11"/>
       <c r="D534" s="11"/>
@@ -9999,7 +9524,7 @@
       <c r="L534" s="11"/>
       <c r="M534" s="11"/>
     </row>
-    <row r="535" spans="2:13">
+    <row r="535" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B535" s="11"/>
       <c r="C535" s="11"/>
       <c r="D535" s="11"/>
@@ -10013,7 +9538,7 @@
       <c r="L535" s="11"/>
       <c r="M535" s="11"/>
     </row>
-    <row r="536" spans="2:13">
+    <row r="536" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B536" s="11"/>
       <c r="C536" s="11"/>
       <c r="D536" s="11"/>
@@ -10027,7 +9552,7 @@
       <c r="L536" s="11"/>
       <c r="M536" s="11"/>
     </row>
-    <row r="537" spans="2:13">
+    <row r="537" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B537" s="11"/>
       <c r="C537" s="11"/>
       <c r="D537" s="11"/>
@@ -10041,7 +9566,7 @@
       <c r="L537" s="11"/>
       <c r="M537" s="11"/>
     </row>
-    <row r="538" spans="2:13">
+    <row r="538" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B538" s="11"/>
       <c r="C538" s="11"/>
       <c r="D538" s="11"/>
@@ -10055,7 +9580,7 @@
       <c r="L538" s="11"/>
       <c r="M538" s="11"/>
     </row>
-    <row r="539" spans="2:13">
+    <row r="539" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B539" s="11"/>
       <c r="C539" s="11"/>
       <c r="D539" s="11"/>
@@ -10069,7 +9594,7 @@
       <c r="L539" s="11"/>
       <c r="M539" s="11"/>
     </row>
-    <row r="540" spans="2:13">
+    <row r="540" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B540" s="11"/>
       <c r="C540" s="11"/>
       <c r="D540" s="11"/>
@@ -10083,7 +9608,7 @@
       <c r="L540" s="11"/>
       <c r="M540" s="11"/>
     </row>
-    <row r="541" spans="2:13">
+    <row r="541" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B541" s="11"/>
       <c r="C541" s="11"/>
       <c r="D541" s="11"/>
@@ -10097,7 +9622,7 @@
       <c r="L541" s="11"/>
       <c r="M541" s="11"/>
     </row>
-    <row r="542" spans="2:13">
+    <row r="542" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B542" s="11"/>
       <c r="C542" s="11"/>
       <c r="D542" s="11"/>
@@ -10111,7 +9636,7 @@
       <c r="L542" s="11"/>
       <c r="M542" s="11"/>
     </row>
-    <row r="543" spans="2:13">
+    <row r="543" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B543" s="11"/>
       <c r="C543" s="11"/>
       <c r="D543" s="11"/>
@@ -10125,7 +9650,7 @@
       <c r="L543" s="11"/>
       <c r="M543" s="11"/>
     </row>
-    <row r="544" spans="2:13">
+    <row r="544" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B544" s="11"/>
       <c r="C544" s="11"/>
       <c r="D544" s="11"/>
@@ -10139,7 +9664,7 @@
       <c r="L544" s="11"/>
       <c r="M544" s="11"/>
     </row>
-    <row r="545" spans="2:13">
+    <row r="545" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B545" s="11"/>
       <c r="C545" s="11"/>
       <c r="D545" s="11"/>
@@ -10153,7 +9678,7 @@
       <c r="L545" s="11"/>
       <c r="M545" s="11"/>
     </row>
-    <row r="546" spans="2:13">
+    <row r="546" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B546" s="11"/>
       <c r="C546" s="11"/>
       <c r="D546" s="11"/>
@@ -10167,7 +9692,7 @@
       <c r="L546" s="11"/>
       <c r="M546" s="11"/>
     </row>
-    <row r="547" spans="2:13">
+    <row r="547" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B547" s="11"/>
       <c r="C547" s="11"/>
       <c r="D547" s="11"/>
@@ -10181,7 +9706,7 @@
       <c r="L547" s="11"/>
       <c r="M547" s="11"/>
     </row>
-    <row r="548" spans="2:13">
+    <row r="548" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B548" s="11"/>
       <c r="C548" s="11"/>
       <c r="D548" s="11"/>
@@ -10195,7 +9720,7 @@
       <c r="L548" s="11"/>
       <c r="M548" s="11"/>
     </row>
-    <row r="549" spans="2:13">
+    <row r="549" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B549" s="11"/>
       <c r="C549" s="11"/>
       <c r="D549" s="11"/>
@@ -10209,7 +9734,7 @@
       <c r="L549" s="11"/>
       <c r="M549" s="11"/>
     </row>
-    <row r="550" spans="2:13">
+    <row r="550" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B550" s="11"/>
       <c r="C550" s="11"/>
       <c r="D550" s="11"/>
@@ -10223,7 +9748,7 @@
       <c r="L550" s="11"/>
       <c r="M550" s="11"/>
     </row>
-    <row r="551" spans="2:13">
+    <row r="551" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B551" s="11"/>
       <c r="C551" s="11"/>
       <c r="D551" s="11"/>
@@ -10237,7 +9762,7 @@
       <c r="L551" s="11"/>
       <c r="M551" s="11"/>
     </row>
-    <row r="552" spans="2:13">
+    <row r="552" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B552" s="11"/>
       <c r="C552" s="11"/>
       <c r="D552" s="11"/>
@@ -10252,7 +9777,7 @@
       <c r="M552" s="11"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <phoneticPr fontId="6"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
 </file>
--- a/ワードウルフ単語_TF2.xlsx
+++ b/ワードウルフ単語_TF2.xlsx
@@ -1004,7 +1004,7 @@
   <dimension ref="A1:R544"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.3"/>

--- a/ワードウルフ単語_TF2.xlsx
+++ b/ワードウルフ単語_TF2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="186">
   <si>
     <t>分類</t>
   </si>
@@ -631,6 +631,124 @@
   </si>
   <si>
     <t>ガトーフェスタハラダのラスク</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>京都の有名な観光地</t>
+    <rPh sb="0" eb="2">
+      <t>キョウト</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ユウメイ</t>
+    </rPh>
+    <rPh sb="6" eb="9">
+      <t>カンコウチ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>金閣寺</t>
+    <rPh sb="0" eb="3">
+      <t>キンカクジ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>銀閣寺</t>
+    <rPh sb="0" eb="3">
+      <t>ギンカクジ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>ここに行くなら旅のどの段階でいきますか？</t>
+    <rPh sb="3" eb="4">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>タビ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ダンカイ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>清水寺</t>
+    <rPh sb="0" eb="3">
+      <t>キヨミズ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>歴史的に有名になったのはどのくらいのイメージですか？</t>
+    <rPh sb="0" eb="3">
+      <t>レキシ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ユウメイ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>だれとここに行きたいですか</t>
+    <rPh sb="6" eb="7">
+      <t>イ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>二条城</t>
+    <rPh sb="0" eb="3">
+      <t>ニジョウジョウ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>下鴨神社</t>
+    <rPh sb="0" eb="2">
+      <t>シモガモ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジンジャ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>三十三間堂</t>
+    <rPh sb="0" eb="5">
+      <t>サンジュウサ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>その場所は、どんなカラーのイメージですか（直接的に言わないこと）</t>
+    <rPh sb="2" eb="4">
+      <t>バショ</t>
+    </rPh>
+    <rPh sb="21" eb="24">
+      <t>チョクセツテキ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>イ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>龍安寺</t>
+    <rPh sb="0" eb="3">
+      <t>リョウアンジ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>この場所で一番みたい、かんじたいものはなんですか？</t>
+    <rPh sb="2" eb="4">
+      <t>バショ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>イチバン</t>
+    </rPh>
     <phoneticPr fontId="6"/>
   </si>
 </sst>
@@ -687,7 +805,7 @@
       <charset val="128"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -709,6 +827,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -753,7 +877,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -786,6 +910,8 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1003,13 +1129,13 @@
   </sheetPr>
   <dimension ref="A1:R544"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.453125" style="1"/>
+    <col min="1" max="1" width="23.1796875" style="1" customWidth="1"/>
     <col min="2" max="2" width="14.453125" style="1" customWidth="1"/>
     <col min="3" max="3" width="17.6328125" style="1" customWidth="1"/>
     <col min="4" max="4" width="14.453125" style="1" customWidth="1"/>
@@ -1083,7 +1209,7 @@
       </c>
     </row>
     <row r="2" spans="1:18" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="18" t="s">
         <v>18</v>
       </c>
       <c r="B2" s="12" t="s">
@@ -1137,7 +1263,7 @@
       </c>
     </row>
     <row r="3" spans="1:18" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="18" t="s">
         <v>34</v>
       </c>
       <c r="B3" s="12" t="s">
@@ -1187,7 +1313,7 @@
       </c>
     </row>
     <row r="4" spans="1:18" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="18" t="s">
         <v>44</v>
       </c>
       <c r="B4" s="12" t="s">
@@ -1233,7 +1359,7 @@
       </c>
     </row>
     <row r="5" spans="1:18" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="18" t="s">
         <v>52</v>
       </c>
       <c r="B5" s="12" t="s">
@@ -1281,7 +1407,7 @@
       </c>
     </row>
     <row r="6" spans="1:18" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="18" t="s">
         <v>61</v>
       </c>
       <c r="B6" s="12" t="s">
@@ -1363,7 +1489,7 @@
       </c>
     </row>
     <row r="8" spans="1:18" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="18" t="s">
         <v>157</v>
       </c>
       <c r="B8" s="13" t="s">
@@ -1449,7 +1575,7 @@
       <c r="R9" s="8"/>
     </row>
     <row r="10" spans="1:18" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="18" t="s">
         <v>96</v>
       </c>
       <c r="B10" s="13" t="s">
@@ -1539,7 +1665,7 @@
       <c r="R11" s="8"/>
     </row>
     <row r="12" spans="1:18" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="18" t="s">
         <v>120</v>
       </c>
       <c r="B12" s="13" t="s">
@@ -1579,7 +1705,7 @@
       <c r="R12" s="8"/>
     </row>
     <row r="13" spans="1:18" ht="13" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="18" t="s">
         <v>130</v>
       </c>
       <c r="B13" s="13" t="s">
@@ -1719,18 +1845,50 @@
       </c>
     </row>
     <row r="16" spans="1:18" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
+      <c r="A16" s="19" t="s">
+        <v>173</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="H16" s="6" t="s">
+        <v>184</v>
+      </c>
       <c r="I16" s="6"/>
       <c r="J16" s="6"/>
       <c r="K16" s="6"/>
       <c r="L16" s="6"/>
       <c r="M16" s="6"/>
+      <c r="N16" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="O16" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="P16" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q16" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="R16" s="1" t="s">
+        <v>185</v>
+      </c>
     </row>
     <row r="17" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B17" s="6"/>
